--- a/RGTI.xlsx
+++ b/RGTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C4B69-9B93-455F-967C-1D2FEB6ED206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A968FE4-2B22-46BC-9F66-18CD0C3B1A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34875" yWindow="2205" windowWidth="33195" windowHeight="17940" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
+    <workbookView xWindow="9790" yWindow="7340" windowWidth="25410" windowHeight="12590" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,12 +457,12 @@
   <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.87</v>
+        <v>7.68</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -487,16 +487,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>166.38183803999999</v>
+        <v>1468.7500185599999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>82.311838039999998</v>
+        <v>1384.68001856</v>
       </c>
     </row>
   </sheetData>

--- a/RGTI.xlsx
+++ b/RGTI.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A968FE4-2B22-46BC-9F66-18CD0C3B1A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1C21E-0175-4D74-90DE-6A528A96E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9790" yWindow="7340" windowWidth="25410" windowHeight="12590" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
+    <workbookView xWindow="9624" yWindow="2928" windowWidth="21096" windowHeight="15552" activeTab="2" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Bubbles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -69,13 +71,133 @@
   </si>
   <si>
     <t>84-qubits</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>11/26/24: Sold 50m shares at $2.00 for $100m.</t>
+  </si>
+  <si>
+    <t>11/25/243: post-Q3 ATM: sold 38.1m shares at $1.53 for $58.4m</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Peak Date</t>
+  </si>
+  <si>
+    <t>Drawdown</t>
+  </si>
+  <si>
+    <t>TLRY</t>
+  </si>
+  <si>
+    <t>Time to -50%</t>
+  </si>
+  <si>
+    <t>1st 50% DD</t>
+  </si>
+  <si>
+    <t>Peak Close</t>
+  </si>
+  <si>
+    <t>1st 50% DD Date</t>
+  </si>
+  <si>
+    <t>Time to -75%</t>
+  </si>
+  <si>
+    <t>1st 75% DD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -87,6 +209,20 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -108,18 +244,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -135,6 +291,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3C8396-98F9-DA25-E399-A37CC6618322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8247743" y="0"/>
+          <a:ext cx="0" cy="5225143"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29028</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29028</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D02B8CB-3599-4A2E-A48D-C3D798DFEFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10697028" y="0"/>
+          <a:ext cx="0" cy="5225143"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB117D3D-E51C-463E-9076-4251291F404E}">
-  <dimension ref="B2:M7"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -469,8 +730,8 @@
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>7.68</v>
+      <c r="L2" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -481,10 +742,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>191.243492</v>
+        <f>192.295809+50+38.1</f>
+        <v>280.39580899999999</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -493,7 +755,7 @@
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>1468.7500185599999</v>
+        <v>5327.5203709999996</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.3">
@@ -504,11 +766,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>20.684+79.792</f>
-        <v>100.476</v>
+        <f>20.286+72.294+100+58.4</f>
+        <v>250.98</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -519,11 +781,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f>13.042+3.364</f>
-        <v>16.405999999999999</v>
+        <f>11.247+2.061</f>
+        <v>13.308</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -532,10 +794,835 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>1384.68001856</v>
+        <v>5089.848371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1">
+        <v>524.351</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1">
+        <v>401.786</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F3EA93-6B2C-4B78-ABED-CBAB894FAA6F}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>2022</v>
+      </c>
+      <c r="Q2">
+        <v>2023</v>
+      </c>
+      <c r="R2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>2201</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3327</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3105</v>
+      </c>
+      <c r="J3" s="7">
+        <f>12008-I3-H3-G3</f>
+        <v>3375</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3052</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3086</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2378</v>
+      </c>
+      <c r="N3" s="7">
+        <f>+J3</f>
+        <v>3375</v>
+      </c>
+      <c r="P3" s="6">
+        <v>13102</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>SUM(G3:J3)</f>
+        <v>12008</v>
+      </c>
+      <c r="R3" s="6">
+        <f>SUM(K3:N3)</f>
+        <v>11891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>510</v>
+      </c>
+      <c r="H4" s="5">
+        <v>597</v>
+      </c>
+      <c r="I4" s="5">
+        <v>834</v>
+      </c>
+      <c r="J4" s="5">
+        <f>2800-I4-H4-G4</f>
+        <v>859</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1552</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1096</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1174</v>
+      </c>
+      <c r="N4" s="5">
+        <f>+N3*0.5</f>
+        <v>1687.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2873</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>SUM(G4:J4)</f>
+        <v>2800</v>
+      </c>
+      <c r="R4" s="1">
+        <f>SUM(K4:N4)</f>
+        <v>5509.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:N5" si="0">+G3-G4</f>
+        <v>1691</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>2516</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>1687.5</v>
+      </c>
+      <c r="P5" s="1">
+        <f>+P3-P4</f>
+        <v>10229</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>+Q3-Q4</f>
+        <v>9208</v>
+      </c>
+      <c r="R5" s="1">
+        <f>+R3-R4</f>
+        <v>6381.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>13707</v>
+      </c>
+      <c r="H6" s="5">
+        <v>13219</v>
+      </c>
+      <c r="I6" s="5">
+        <v>13056</v>
+      </c>
+      <c r="J6" s="5">
+        <f>52768-I6-H6-G6</f>
+        <v>12786</v>
+      </c>
+      <c r="K6" s="5">
+        <v>11471</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11870</v>
+      </c>
+      <c r="M6" s="5">
+        <v>12752</v>
+      </c>
+      <c r="N6" s="5">
+        <f>+M6</f>
+        <v>12752</v>
+      </c>
+      <c r="P6" s="1">
+        <v>59952</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>SUM(G6:J6)</f>
+        <v>52768</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R7" si="1">SUM(K6:N6)</f>
+        <v>48845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>9013</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5747</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6047</v>
+      </c>
+      <c r="J7" s="5">
+        <f>27744-I7-H7-G7</f>
+        <v>6937</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6614</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6205</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5798</v>
+      </c>
+      <c r="N7" s="5">
+        <f>+M7</f>
+        <v>5798</v>
+      </c>
+      <c r="P7" s="1">
+        <v>53980</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(G7:J7)</f>
+        <v>27744</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>24415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8:N8" si="2">+G7+G6</f>
+        <v>22720</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>18966</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>19103</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>19723</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>18085</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>18075</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>18550</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>18550</v>
+      </c>
+      <c r="P8" s="5">
+        <f>+P7+P6</f>
+        <v>113932</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>+Q7+Q6</f>
+        <v>80512</v>
+      </c>
+      <c r="R8" s="5">
+        <f>+R7+R6</f>
+        <v>73260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" ref="G9:N9" si="3">+G5-G8</f>
+        <v>-21029</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>-16236</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>-16832</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>-17207</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>-16585</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>-16085</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>-17346</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="3"/>
+        <v>-16862.5</v>
+      </c>
+      <c r="P9" s="5">
+        <f>+P5-P8</f>
+        <v>-103703</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>+Q5-Q8</f>
+        <v>-71304</v>
+      </c>
+      <c r="R9" s="5">
+        <f>+R5-R8</f>
+        <v>-66878.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5">
+        <f>-1464+1284</f>
+        <v>-180</v>
+      </c>
+      <c r="H10" s="5">
+        <f>-1574+1199</f>
+        <v>-375</v>
+      </c>
+      <c r="I10" s="5">
+        <f>-1473+1263</f>
+        <v>-210</v>
+      </c>
+      <c r="J10" s="5">
+        <f>-5779+5076-I10-H10-G10</f>
+        <v>62</v>
+      </c>
+      <c r="K10" s="5">
+        <f>-1107+1123</f>
+        <v>16</v>
+      </c>
+      <c r="L10" s="5">
+        <f>-969+1218</f>
+        <v>249</v>
+      </c>
+      <c r="M10" s="5">
+        <f>-733+1226</f>
+        <v>493</v>
+      </c>
+      <c r="N10" s="5">
+        <f>+M10</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:M11" si="4">+G9+G10</f>
+        <v>-21209</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>-16611</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="4"/>
+        <v>-17042</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>-17145</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>-16569</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>-15836</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>-16853</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:R11" si="5">+N9+N10</f>
+        <v>-16369.5</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <f t="shared" si="5"/>
+        <v>-103703</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="5"/>
+        <v>-71304</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="5"/>
+        <v>-66878.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f>+M12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:N13" si="6">+G11-G12</f>
+        <v>-21209</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>-16611</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>-17042</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>-17145</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="6"/>
+        <v>-16569</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="6"/>
+        <v>-15836</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="6"/>
+        <v>-16853</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="6"/>
+        <v>-16369.5</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13:R13" si="7">+P11-P12</f>
+        <v>-103703</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="7"/>
+        <v>-71304</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="7"/>
+        <v>-66878.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:N14" si="8">+G13/G15</f>
+        <v>-0.16997387359951274</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.12925339454538382</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.12730641088850045</v>
+      </c>
+      <c r="J14" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.10911066477890093</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="8"/>
+        <v>-9.2121719807100516E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="8"/>
+        <v>-8.945851403213563E-2</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.8462500000000001E-2</v>
+      </c>
+      <c r="P14" s="8" t="e">
+        <f t="shared" ref="P14:R14" si="9">+P13/P15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.33770752145750726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>124778</v>
+      </c>
+      <c r="H15" s="5">
+        <v>128515</v>
+      </c>
+      <c r="I15" s="5">
+        <v>133866</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>151855</v>
+      </c>
+      <c r="L15" s="5">
+        <v>171903</v>
+      </c>
+      <c r="M15" s="5">
+        <v>188389</v>
+      </c>
+      <c r="N15" s="5">
+        <v>280000</v>
+      </c>
+      <c r="R15" s="1">
+        <f>AVERAGE(K15:N15)</f>
+        <v>198036.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="9">
+        <f>+K3/G3-1</f>
+        <v>0.3866424352567015</v>
+      </c>
+      <c r="L17" s="9">
+        <f>+L3/H3-1</f>
+        <v>-7.2437631499849719E-2</v>
+      </c>
+      <c r="M17" s="9">
+        <f>+M3/I3-1</f>
+        <v>-0.23413848631239931</v>
+      </c>
+      <c r="N17" s="9">
+        <f>+N3/J3-1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFACA66-1E8E-4FF9-86A9-70FF6EBF1DA3}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11">
+        <v>43362</v>
+      </c>
+      <c r="D3" s="8">
+        <v>214.06</v>
+      </c>
+      <c r="E3" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>43367</v>
+      </c>
+      <c r="G3" s="5">
+        <f>+F3-C3</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <f>+E3/D3-1</f>
+        <v>-0.53517705316266473</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{18FD0C5C-6B45-4D0A-A19D-80CF5D573D94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RGTI.xlsx
+++ b/RGTI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1C21E-0175-4D74-90DE-6A528A96E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BEA805-96A6-435F-BE49-327468901125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9624" yWindow="2928" windowWidth="21096" windowHeight="15552" activeTab="2" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
+    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Price</t>
   </si>
@@ -191,6 +191,183 @@
   </si>
   <si>
     <t>1st 75% DD</t>
+  </si>
+  <si>
+    <t>DRYS</t>
+  </si>
+  <si>
+    <t>NSA budget</t>
+  </si>
+  <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>Decryption</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>SNDL</t>
+  </si>
+  <si>
+    <t>BTX</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>LCID</t>
+  </si>
+  <si>
+    <t>NKLA</t>
+  </si>
+  <si>
+    <t>PTON</t>
+  </si>
+  <si>
+    <t>TOPS</t>
+  </si>
+  <si>
+    <t>BYND</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>CLOV</t>
+  </si>
+  <si>
+    <t>WKHS</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>SPCE</t>
+  </si>
+  <si>
+    <t>FSKR</t>
+  </si>
+  <si>
+    <t>WBVN</t>
+  </si>
+  <si>
+    <t>CVNA</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>RIVN</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>WISH</t>
+  </si>
+  <si>
+    <t>IPET</t>
+  </si>
+  <si>
+    <t>ETYS</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>TZOO</t>
+  </si>
+  <si>
+    <t>BAYC NFTs</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Theranos</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>TDOC</t>
+  </si>
+  <si>
+    <t>LAZR</t>
+  </si>
+  <si>
+    <t>LUMN</t>
+  </si>
+  <si>
+    <t>LIDR</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
+    <t>QTWO</t>
+  </si>
+  <si>
+    <t>HMNY MoviePass</t>
+  </si>
+  <si>
+    <t>SAVA</t>
+  </si>
+  <si>
+    <t>MVIS</t>
+  </si>
+  <si>
+    <t>Terra Luna</t>
+  </si>
+  <si>
+    <t>1st 75% DD Date</t>
+  </si>
+  <si>
+    <t>1st 90% DD</t>
+  </si>
+  <si>
+    <t>1st 90% DD Date</t>
+  </si>
+  <si>
+    <t>Time to -90%</t>
+  </si>
+  <si>
+    <t>CMGI</t>
+  </si>
+  <si>
+    <t>ICGE</t>
+  </si>
+  <si>
+    <t>JDSU</t>
+  </si>
+  <si>
+    <t>SDLI</t>
+  </si>
+  <si>
+    <t>VRX</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -248,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,6 +450,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -305,7 +484,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -355,7 +534,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29028</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -718,12 +897,12 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -731,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -749,16 +928,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>5327.5203709999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+        <v>5125.6353885199997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -773,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -788,16 +967,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>5089.848371</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4887.9633885200001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>26</v>
       </c>
@@ -808,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>27</v>
       </c>
@@ -819,17 +998,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>40</v>
       </c>
@@ -844,28 +1023,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F3EA93-6B2C-4B78-ABED-CBAB894FAA6F}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:DM27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.7109375" style="2"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
@@ -911,624 +1092,1582 @@
       <c r="R2">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AH2" si="0">+S2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="1">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="1">
+        <f>+X3*0.2</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="6">
+        <f>+X4*0.5</f>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>2201</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H7" s="7">
         <v>3327</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I7" s="7">
         <v>3105</v>
       </c>
-      <c r="J3" s="7">
-        <f>12008-I3-H3-G3</f>
+      <c r="J7" s="7">
+        <f>12008-I7-H7-G7</f>
         <v>3375</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K7" s="7">
         <v>3052</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L7" s="7">
         <v>3086</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M7" s="7">
         <v>2378</v>
       </c>
-      <c r="N3" s="7">
-        <f>+J3</f>
+      <c r="N7" s="7">
+        <f>+J7</f>
         <v>3375</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P7" s="6">
         <v>13102</v>
       </c>
-      <c r="Q3" s="6">
-        <f>SUM(G3:J3)</f>
+      <c r="Q7" s="6">
+        <f>SUM(G7:J7)</f>
         <v>12008</v>
       </c>
-      <c r="R3" s="6">
-        <f>SUM(K3:N3)</f>
+      <c r="R7" s="6">
+        <f>SUM(K7:N7)</f>
         <v>11891</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="S7" s="6">
+        <f t="shared" ref="S7:X7" si="1">+R7*1.9</f>
+        <v>22592.899999999998</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="1"/>
+        <v>42926.509999999995</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="1"/>
+        <v>81560.368999999992</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="1"/>
+        <v>154964.70109999998</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="1"/>
+        <v>294432.93208999996</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="1"/>
+        <v>559422.57097099989</v>
+      </c>
+      <c r="Y7" s="6">
+        <f>+X7*1.3</f>
+        <v>727249.34226229985</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>+Y7*1.3</f>
+        <v>945424.14494098979</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>+Z7*1.3</f>
+        <v>1229051.3884232868</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>+AA7*1.3</f>
+        <v>1597766.8049502729</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>+AB7*1.3</f>
+        <v>2077096.8464353548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>510</v>
-      </c>
-      <c r="H4" s="5">
-        <v>597</v>
-      </c>
-      <c r="I4" s="5">
-        <v>834</v>
-      </c>
-      <c r="J4" s="5">
-        <f>2800-I4-H4-G4</f>
-        <v>859</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1552</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1096</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1174</v>
-      </c>
-      <c r="N4" s="5">
-        <f>+N3*0.5</f>
-        <v>1687.5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2873</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>SUM(G4:J4)</f>
-        <v>2800</v>
-      </c>
-      <c r="R4" s="1">
-        <f>SUM(K4:N4)</f>
-        <v>5509.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <f t="shared" ref="G5:N5" si="0">+G3-G4</f>
-        <v>1691</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>2730</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>2271</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>2516</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1990</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1204</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>1687.5</v>
-      </c>
-      <c r="P5" s="1">
-        <f>+P3-P4</f>
-        <v>10229</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>+Q3-Q4</f>
-        <v>9208</v>
-      </c>
-      <c r="R5" s="1">
-        <f>+R3-R4</f>
-        <v>6381.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>13707</v>
-      </c>
-      <c r="H6" s="5">
-        <v>13219</v>
-      </c>
-      <c r="I6" s="5">
-        <v>13056</v>
-      </c>
-      <c r="J6" s="5">
-        <f>52768-I6-H6-G6</f>
-        <v>12786</v>
-      </c>
-      <c r="K6" s="5">
-        <v>11471</v>
-      </c>
-      <c r="L6" s="5">
-        <v>11870</v>
-      </c>
-      <c r="M6" s="5">
-        <v>12752</v>
-      </c>
-      <c r="N6" s="5">
-        <f>+M6</f>
-        <v>12752</v>
-      </c>
-      <c r="P6" s="1">
-        <v>59952</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>SUM(G6:J6)</f>
-        <v>52768</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" ref="R6:R7" si="1">SUM(K6:N6)</f>
-        <v>48845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>9013</v>
-      </c>
-      <c r="H7" s="5">
-        <v>5747</v>
-      </c>
-      <c r="I7" s="5">
-        <v>6047</v>
-      </c>
-      <c r="J7" s="5">
-        <f>27744-I7-H7-G7</f>
-        <v>6937</v>
-      </c>
-      <c r="K7" s="5">
-        <v>6614</v>
-      </c>
-      <c r="L7" s="5">
-        <v>6205</v>
-      </c>
-      <c r="M7" s="5">
-        <v>5798</v>
-      </c>
-      <c r="N7" s="5">
-        <f>+M7</f>
-        <v>5798</v>
-      </c>
-      <c r="P7" s="1">
-        <v>53980</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>SUM(G7:J7)</f>
-        <v>27744</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="1"/>
-        <v>24415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <f t="shared" ref="G8:N8" si="2">+G7+G6</f>
-        <v>22720</v>
+        <v>510</v>
       </c>
       <c r="H8" s="5">
+        <v>597</v>
+      </c>
+      <c r="I8" s="5">
+        <v>834</v>
+      </c>
+      <c r="J8" s="5">
+        <f>2800-I8-H8-G8</f>
+        <v>859</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1552</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1096</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1174</v>
+      </c>
+      <c r="N8" s="5">
+        <f>+N7*0.5</f>
+        <v>1687.5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2873</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>SUM(G8:J8)</f>
+        <v>2800</v>
+      </c>
+      <c r="R8" s="1">
+        <f>SUM(K8:N8)</f>
+        <v>5509.5</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" ref="S8:W8" si="2">+S7-S9</f>
+        <v>5648.2249999999985</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="2"/>
-        <v>18966</v>
-      </c>
-      <c r="I8" s="5">
+        <v>10731.627499999999</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="2"/>
-        <v>19103</v>
-      </c>
-      <c r="J8" s="5">
+        <v>20390.092250000002</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" si="2"/>
-        <v>19723</v>
-      </c>
-      <c r="K8" s="5">
+        <v>38741.175274999987</v>
+      </c>
+      <c r="W8" s="1">
         <f t="shared" si="2"/>
-        <v>18085</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="2"/>
-        <v>18075</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="2"/>
-        <v>18550</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="2"/>
-        <v>18550</v>
-      </c>
-      <c r="P8" s="5">
-        <f>+P7+P6</f>
-        <v>113932</v>
-      </c>
-      <c r="Q8" s="5">
-        <f>+Q7+Q6</f>
-        <v>80512</v>
-      </c>
-      <c r="R8" s="5">
-        <f>+R7+R6</f>
-        <v>73260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73608.233022500004</v>
+      </c>
+      <c r="X8" s="1">
+        <f>+X7-X9</f>
+        <v>139855.64274275</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>+Y7-Y9</f>
+        <v>181812.33556557493</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" ref="Z8" si="3">+Z7-Z9</f>
+        <v>236356.03623524751</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" ref="AA8" si="4">+AA7-AA9</f>
+        <v>307262.84710582171</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" ref="AB8" si="5">+AB7-AB9</f>
+        <v>399441.70123756817</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" ref="AC8" si="6">+AC7-AC9</f>
+        <v>519274.21160883876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:N9" si="3">+G5-G8</f>
+        <f t="shared" ref="G9:N9" si="7">+G7-G8</f>
+        <v>1691</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="7"/>
+        <v>2730</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="7"/>
+        <v>2271</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="7"/>
+        <v>2516</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="7"/>
+        <v>1990</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="7"/>
+        <v>1204</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="7"/>
+        <v>1687.5</v>
+      </c>
+      <c r="P9" s="1">
+        <f>+P7-P8</f>
+        <v>10229</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>+Q7-Q8</f>
+        <v>9208</v>
+      </c>
+      <c r="R9" s="1">
+        <f>+R7-R8</f>
+        <v>6381.5</v>
+      </c>
+      <c r="S9" s="1">
+        <f>+S7*0.75</f>
+        <v>16944.674999999999</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:Y9" si="8">+T7*0.75</f>
+        <v>32194.882499999996</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="8"/>
+        <v>61170.27674999999</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="8"/>
+        <v>116223.52582499999</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="8"/>
+        <v>220824.69906749995</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="8"/>
+        <v>419566.92822824989</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="8"/>
+        <v>545437.00669672491</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" ref="Z9:AC9" si="9">+Z7*0.75</f>
+        <v>709068.10870574228</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="9"/>
+        <v>921788.54131746513</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="9"/>
+        <v>1198325.1037127047</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="9"/>
+        <v>1557822.634826516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>13707</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13219</v>
+      </c>
+      <c r="I10" s="5">
+        <v>13056</v>
+      </c>
+      <c r="J10" s="5">
+        <f>52768-I10-H10-G10</f>
+        <v>12786</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11471</v>
+      </c>
+      <c r="L10" s="5">
+        <v>11870</v>
+      </c>
+      <c r="M10" s="5">
+        <v>12752</v>
+      </c>
+      <c r="N10" s="5">
+        <f>+M10</f>
+        <v>12752</v>
+      </c>
+      <c r="P10" s="1">
+        <v>59952</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>SUM(G10:J10)</f>
+        <v>52768</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ref="R10:R11" si="10">SUM(K10:N10)</f>
+        <v>48845</v>
+      </c>
+      <c r="S10" s="1">
+        <f>+R10*1.1</f>
+        <v>53729.500000000007</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10:Y10" si="11">+S10*1.1</f>
+        <v>59102.450000000012</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="11"/>
+        <v>65012.695000000022</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="11"/>
+        <v>71513.964500000031</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="11"/>
+        <v>78665.360950000046</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="11"/>
+        <v>86531.897045000063</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="11"/>
+        <v>95185.086749500071</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" ref="Z10:Z11" si="12">+Y10*1.1</f>
+        <v>104703.59542445009</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" ref="AA10:AA11" si="13">+Z10*1.1</f>
+        <v>115173.95496689511</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" ref="AB10:AB11" si="14">+AA10*1.1</f>
+        <v>126691.35046358463</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC11" si="15">+AB10*1.1</f>
+        <v>139360.4855099431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>9013</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5747</v>
+      </c>
+      <c r="I11" s="5">
+        <v>6047</v>
+      </c>
+      <c r="J11" s="5">
+        <f>27744-I11-H11-G11</f>
+        <v>6937</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6614</v>
+      </c>
+      <c r="L11" s="5">
+        <v>6205</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5798</v>
+      </c>
+      <c r="N11" s="5">
+        <f>+M11</f>
+        <v>5798</v>
+      </c>
+      <c r="P11" s="1">
+        <v>53980</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>SUM(G11:J11)</f>
+        <v>27744</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="10"/>
+        <v>24415</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:Y11" si="16">+R11*1.1</f>
+        <v>26856.500000000004</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="16"/>
+        <v>29542.150000000005</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="16"/>
+        <v>32496.365000000009</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="16"/>
+        <v>35746.001500000013</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="16"/>
+        <v>39320.601650000019</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="16"/>
+        <v>43252.661815000021</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="16"/>
+        <v>47577.927996500024</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="12"/>
+        <v>52335.720796150032</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="13"/>
+        <v>57569.292875765037</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="14"/>
+        <v>63326.222163341547</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="15"/>
+        <v>69658.844379675706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:N12" si="17">+G11+G10</f>
+        <v>22720</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="17"/>
+        <v>18966</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="17"/>
+        <v>19103</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="17"/>
+        <v>19723</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="17"/>
+        <v>18085</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="17"/>
+        <v>18075</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="17"/>
+        <v>18550</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="17"/>
+        <v>18550</v>
+      </c>
+      <c r="P12" s="5">
+        <f>+P11+P10</f>
+        <v>113932</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>+Q11+Q10</f>
+        <v>80512</v>
+      </c>
+      <c r="R12" s="5">
+        <f>+R11+R10</f>
+        <v>73260</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" ref="S12:Y12" si="18">+S11+S10</f>
+        <v>80586.000000000015</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="18"/>
+        <v>88644.60000000002</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="18"/>
+        <v>97509.060000000027</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="18"/>
+        <v>107259.96600000004</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="18"/>
+        <v>117985.96260000006</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="18"/>
+        <v>129784.55886000008</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="18"/>
+        <v>142763.01474600009</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" ref="Z12:AC12" si="19">+Z11+Z10</f>
+        <v>157039.31622060013</v>
+      </c>
+      <c r="AA12" s="5">
+        <f t="shared" si="19"/>
+        <v>172743.24784266014</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="19"/>
+        <v>190017.57262692618</v>
+      </c>
+      <c r="AC12" s="5">
+        <f t="shared" si="19"/>
+        <v>209019.32988961879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:N13" si="20">+G9-G12</f>
         <v>-21029</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
+      <c r="H13" s="5">
+        <f t="shared" si="20"/>
         <v>-16236</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="3"/>
+      <c r="I13" s="5">
+        <f t="shared" si="20"/>
         <v>-16832</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="3"/>
+      <c r="J13" s="5">
+        <f t="shared" si="20"/>
         <v>-17207</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
+      <c r="K13" s="5">
+        <f t="shared" si="20"/>
         <v>-16585</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="3"/>
+      <c r="L13" s="5">
+        <f t="shared" si="20"/>
         <v>-16085</v>
       </c>
-      <c r="M9" s="5">
-        <f t="shared" si="3"/>
+      <c r="M13" s="5">
+        <f t="shared" si="20"/>
         <v>-17346</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="3"/>
+      <c r="N13" s="5">
+        <f t="shared" si="20"/>
         <v>-16862.5</v>
       </c>
-      <c r="P9" s="5">
-        <f>+P5-P8</f>
+      <c r="P13" s="5">
+        <f>+P9-P12</f>
         <v>-103703</v>
       </c>
-      <c r="Q9" s="5">
-        <f>+Q5-Q8</f>
+      <c r="Q13" s="5">
+        <f>+Q9-Q12</f>
         <v>-71304</v>
       </c>
-      <c r="R9" s="5">
-        <f>+R5-R8</f>
+      <c r="R13" s="5">
+        <f>+R9-R12</f>
         <v>-66878.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="S13" s="5">
+        <f t="shared" ref="S13:Y13" si="21">+S9-S12</f>
+        <v>-63641.325000000012</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="21"/>
+        <v>-56449.717500000028</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="21"/>
+        <v>-36338.783250000037</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="21"/>
+        <v>8963.5598249999457</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="21"/>
+        <v>102838.7364674999</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="21"/>
+        <v>289782.36936824978</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="21"/>
+        <v>402673.99195072486</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" ref="Z13:AC13" si="22">+Z9-Z12</f>
+        <v>552028.79248514213</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" si="22"/>
+        <v>749045.29347480496</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="22"/>
+        <v>1008307.5310857785</v>
+      </c>
+      <c r="AC13" s="5">
+        <f t="shared" si="22"/>
+        <v>1348803.3049368972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5">
+      <c r="E14" s="5"/>
+      <c r="G14" s="5">
         <f>-1464+1284</f>
         <v>-180</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H14" s="5">
         <f>-1574+1199</f>
         <v>-375</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I14" s="5">
         <f>-1473+1263</f>
         <v>-210</v>
       </c>
-      <c r="J10" s="5">
-        <f>-5779+5076-I10-H10-G10</f>
+      <c r="J14" s="5">
+        <f>-5779+5076-I14-H14-G14</f>
         <v>62</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K14" s="5">
         <f>-1107+1123</f>
         <v>16</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L14" s="5">
         <f>-969+1218</f>
         <v>249</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M14" s="5">
         <f>-733+1226</f>
         <v>493</v>
       </c>
-      <c r="N10" s="5">
-        <f>+M10</f>
+      <c r="N14" s="5">
+        <f>+M14</f>
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:M11" si="4">+G9+G10</f>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15:M15" si="23">+G13+G14</f>
         <v>-21209</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
+      <c r="H15" s="5">
+        <f t="shared" si="23"/>
         <v>-16611</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="4"/>
+      <c r="I15" s="5">
+        <f t="shared" si="23"/>
         <v>-17042</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="4"/>
+      <c r="J15" s="5">
+        <f t="shared" si="23"/>
         <v>-17145</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="4"/>
+      <c r="K15" s="5">
+        <f t="shared" si="23"/>
         <v>-16569</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="4"/>
+      <c r="L15" s="5">
+        <f t="shared" si="23"/>
         <v>-15836</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="4"/>
+      <c r="M15" s="5">
+        <f t="shared" si="23"/>
         <v>-16853</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" ref="N11:R11" si="5">+N9+N10</f>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15:Y15" si="24">+N13+N14</f>
         <v>-16369.5</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5">
-        <f t="shared" si="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <f t="shared" si="24"/>
         <v>-103703</v>
       </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="5">
+        <f t="shared" si="24"/>
         <v>-71304</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" si="5"/>
+      <c r="R15" s="5">
+        <f t="shared" si="24"/>
         <v>-66878.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="S15" s="5">
+        <f t="shared" si="24"/>
+        <v>-63641.325000000012</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="24"/>
+        <v>-56449.717500000028</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="24"/>
+        <v>-36338.783250000037</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="24"/>
+        <v>8963.5598249999457</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="24"/>
+        <v>102838.7364674999</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="24"/>
+        <v>289782.36936824978</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="24"/>
+        <v>402673.99195072486</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" ref="Z15:AC15" si="25">+Z13+Z14</f>
+        <v>552028.79248514213</v>
+      </c>
+      <c r="AA15" s="5">
+        <f t="shared" si="25"/>
+        <v>749045.29347480496</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="25"/>
+        <v>1008307.5310857785</v>
+      </c>
+      <c r="AC15" s="5">
+        <f t="shared" si="25"/>
+        <v>1348803.3049368972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5">
+      <c r="E16" s="5"/>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="2">
-        <f>+M12</f>
+      <c r="N16" s="2">
+        <f>+M16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="Y16" s="1">
+        <f>+Y15*0.1</f>
+        <v>40267.399195072489</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" ref="Z16" si="26">+Z15*0.1</f>
+        <v>55202.879248514218</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" ref="AA16" si="27">+AA15*0.1</f>
+        <v>74904.529347480493</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" ref="AB16" si="28">+AB15*0.1</f>
+        <v>100830.75310857786</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" ref="AC16" si="29">+AC15*0.1</f>
+        <v>134880.33049368972</v>
+      </c>
+    </row>
+    <row r="17" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5">
-        <f t="shared" ref="G13:N13" si="6">+G11-G12</f>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:N17" si="30">+G15-G16</f>
         <v>-21209</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="6"/>
+      <c r="H17" s="5">
+        <f t="shared" si="30"/>
         <v>-16611</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="6"/>
+      <c r="I17" s="5">
+        <f t="shared" si="30"/>
         <v>-17042</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="6"/>
+      <c r="J17" s="5">
+        <f t="shared" si="30"/>
         <v>-17145</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="6"/>
+      <c r="K17" s="5">
+        <f t="shared" si="30"/>
         <v>-16569</v>
       </c>
-      <c r="L13" s="5">
-        <f t="shared" si="6"/>
+      <c r="L17" s="5">
+        <f t="shared" si="30"/>
         <v>-15836</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" si="6"/>
+      <c r="M17" s="5">
+        <f t="shared" si="30"/>
         <v>-16853</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="6"/>
+      <c r="N17" s="5">
+        <f t="shared" si="30"/>
         <v>-16369.5</v>
       </c>
-      <c r="P13" s="5">
-        <f t="shared" ref="P13:R13" si="7">+P11-P12</f>
+      <c r="P17" s="5">
+        <f t="shared" ref="P17:X17" si="31">+P15-P16</f>
         <v>-103703</v>
       </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="31"/>
         <v>-71304</v>
       </c>
-      <c r="R13" s="5">
-        <f t="shared" si="7"/>
+      <c r="R17" s="5">
+        <f t="shared" si="31"/>
         <v>-66878.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="S17" s="5">
+        <f t="shared" si="31"/>
+        <v>-63641.325000000012</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="31"/>
+        <v>-56449.717500000028</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="31"/>
+        <v>-36338.783250000037</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="31"/>
+        <v>8963.5598249999457</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="31"/>
+        <v>102838.7364674999</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="31"/>
+        <v>289782.36936824978</v>
+      </c>
+      <c r="Y17" s="5">
+        <f>+Y15-Y16</f>
+        <v>362406.59275565238</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" ref="Z17" si="32">+Z15-Z16</f>
+        <v>496825.91323662794</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" ref="AA17" si="33">+AA15-AA16</f>
+        <v>674140.76412732445</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" ref="AB17" si="34">+AB15-AB16</f>
+        <v>907476.77797720069</v>
+      </c>
+      <c r="AC17" s="5">
+        <f t="shared" ref="AC17" si="35">+AC15-AC16</f>
+        <v>1213922.9744432075</v>
+      </c>
+      <c r="AD17" s="5">
+        <f t="shared" ref="Z17:CK17" si="36">+AC17*(1+$Z$25)</f>
+        <v>1201783.7446987755</v>
+      </c>
+      <c r="AE17" s="5">
+        <f t="shared" si="36"/>
+        <v>1189765.9072517876</v>
+      </c>
+      <c r="AF17" s="5">
+        <f t="shared" si="36"/>
+        <v>1177868.2481792697</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="36"/>
+        <v>1166089.565697477</v>
+      </c>
+      <c r="AH17" s="5">
+        <f t="shared" si="36"/>
+        <v>1154428.6700405022</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="36"/>
+        <v>1142884.3833400973</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" si="36"/>
+        <v>1131455.5395066964</v>
+      </c>
+      <c r="AK17" s="5">
+        <f t="shared" si="36"/>
+        <v>1120140.9841116294</v>
+      </c>
+      <c r="AL17" s="5">
+        <f t="shared" si="36"/>
+        <v>1108939.5742705131</v>
+      </c>
+      <c r="AM17" s="5">
+        <f t="shared" si="36"/>
+        <v>1097850.178527808</v>
+      </c>
+      <c r="AN17" s="5">
+        <f t="shared" si="36"/>
+        <v>1086871.67674253</v>
+      </c>
+      <c r="AO17" s="5">
+        <f t="shared" si="36"/>
+        <v>1076002.9599751045</v>
+      </c>
+      <c r="AP17" s="5">
+        <f t="shared" si="36"/>
+        <v>1065242.9303753534</v>
+      </c>
+      <c r="AQ17" s="5">
+        <f t="shared" si="36"/>
+        <v>1054590.5010715998</v>
+      </c>
+      <c r="AR17" s="5">
+        <f t="shared" si="36"/>
+        <v>1044044.5960608837</v>
+      </c>
+      <c r="AS17" s="5">
+        <f t="shared" si="36"/>
+        <v>1033604.1501002748</v>
+      </c>
+      <c r="AT17" s="5">
+        <f t="shared" si="36"/>
+        <v>1023268.1085992721</v>
+      </c>
+      <c r="AU17" s="5">
+        <f t="shared" si="36"/>
+        <v>1013035.4275132794</v>
+      </c>
+      <c r="AV17" s="5">
+        <f t="shared" si="36"/>
+        <v>1002905.0732381466</v>
+      </c>
+      <c r="AW17" s="5">
+        <f t="shared" si="36"/>
+        <v>992876.02250576508</v>
+      </c>
+      <c r="AX17" s="5">
+        <f t="shared" si="36"/>
+        <v>982947.26228070748</v>
+      </c>
+      <c r="AY17" s="5">
+        <f t="shared" si="36"/>
+        <v>973117.78965790034</v>
+      </c>
+      <c r="AZ17" s="5">
+        <f t="shared" si="36"/>
+        <v>963386.61176132131</v>
+      </c>
+      <c r="BA17" s="5">
+        <f t="shared" si="36"/>
+        <v>953752.74564370804</v>
+      </c>
+      <c r="BB17" s="5">
+        <f t="shared" si="36"/>
+        <v>944215.21818727092</v>
+      </c>
+      <c r="BC17" s="5">
+        <f t="shared" si="36"/>
+        <v>934773.06600539817</v>
+      </c>
+      <c r="BD17" s="5">
+        <f t="shared" si="36"/>
+        <v>925425.33534534415</v>
+      </c>
+      <c r="BE17" s="5">
+        <f t="shared" si="36"/>
+        <v>916171.08199189068</v>
+      </c>
+      <c r="BF17" s="5">
+        <f t="shared" si="36"/>
+        <v>907009.37117197178</v>
+      </c>
+      <c r="BG17" s="5">
+        <f t="shared" si="36"/>
+        <v>897939.27746025205</v>
+      </c>
+      <c r="BH17" s="5">
+        <f t="shared" si="36"/>
+        <v>888959.88468564954</v>
+      </c>
+      <c r="BI17" s="5">
+        <f t="shared" si="36"/>
+        <v>880070.28583879303</v>
+      </c>
+      <c r="BJ17" s="5">
+        <f t="shared" si="36"/>
+        <v>871269.58298040507</v>
+      </c>
+      <c r="BK17" s="5">
+        <f t="shared" si="36"/>
+        <v>862556.88715060102</v>
+      </c>
+      <c r="BL17" s="5">
+        <f t="shared" si="36"/>
+        <v>853931.31827909499</v>
+      </c>
+      <c r="BM17" s="5">
+        <f t="shared" si="36"/>
+        <v>845392.005096304</v>
+      </c>
+      <c r="BN17" s="5">
+        <f t="shared" si="36"/>
+        <v>836938.08504534094</v>
+      </c>
+      <c r="BO17" s="5">
+        <f t="shared" si="36"/>
+        <v>828568.70419488754</v>
+      </c>
+      <c r="BP17" s="5">
+        <f t="shared" si="36"/>
+        <v>820283.01715293864</v>
+      </c>
+      <c r="BQ17" s="5">
+        <f t="shared" si="36"/>
+        <v>812080.18698140921</v>
+      </c>
+      <c r="BR17" s="5">
+        <f t="shared" si="36"/>
+        <v>803959.38511159515</v>
+      </c>
+      <c r="BS17" s="5">
+        <f t="shared" si="36"/>
+        <v>795919.79126047925</v>
+      </c>
+      <c r="BT17" s="5">
+        <f t="shared" si="36"/>
+        <v>787960.59334787447</v>
+      </c>
+      <c r="BU17" s="5">
+        <f t="shared" si="36"/>
+        <v>780080.98741439567</v>
+      </c>
+      <c r="BV17" s="5">
+        <f t="shared" si="36"/>
+        <v>772280.17754025175</v>
+      </c>
+      <c r="BW17" s="5">
+        <f t="shared" si="36"/>
+        <v>764557.37576484925</v>
+      </c>
+      <c r="BX17" s="5">
+        <f t="shared" si="36"/>
+        <v>756911.80200720078</v>
+      </c>
+      <c r="BY17" s="5">
+        <f t="shared" si="36"/>
+        <v>749342.68398712878</v>
+      </c>
+      <c r="BZ17" s="5">
+        <f t="shared" si="36"/>
+        <v>741849.25714725745</v>
+      </c>
+      <c r="CA17" s="5">
+        <f t="shared" si="36"/>
+        <v>734430.76457578491</v>
+      </c>
+      <c r="CB17" s="5">
+        <f t="shared" si="36"/>
+        <v>727086.45693002711</v>
+      </c>
+      <c r="CC17" s="5">
+        <f t="shared" si="36"/>
+        <v>719815.59236072679</v>
+      </c>
+      <c r="CD17" s="5">
+        <f t="shared" si="36"/>
+        <v>712617.4364371195</v>
+      </c>
+      <c r="CE17" s="5">
+        <f t="shared" si="36"/>
+        <v>705491.26207274827</v>
+      </c>
+      <c r="CF17" s="5">
+        <f t="shared" si="36"/>
+        <v>698436.34945202083</v>
+      </c>
+      <c r="CG17" s="5">
+        <f t="shared" si="36"/>
+        <v>691451.98595750064</v>
+      </c>
+      <c r="CH17" s="5">
+        <f t="shared" si="36"/>
+        <v>684537.46609792567</v>
+      </c>
+      <c r="CI17" s="5">
+        <f t="shared" si="36"/>
+        <v>677692.09143694642</v>
+      </c>
+      <c r="CJ17" s="5">
+        <f t="shared" si="36"/>
+        <v>670915.1705225769</v>
+      </c>
+      <c r="CK17" s="5">
+        <f t="shared" si="36"/>
+        <v>664206.01881735108</v>
+      </c>
+      <c r="CL17" s="5">
+        <f t="shared" ref="CL17:DM17" si="37">+CK17*(1+$Z$25)</f>
+        <v>657563.95862917753</v>
+      </c>
+      <c r="CM17" s="5">
+        <f t="shared" si="37"/>
+        <v>650988.31904288579</v>
+      </c>
+      <c r="CN17" s="5">
+        <f t="shared" si="37"/>
+        <v>644478.43585245695</v>
+      </c>
+      <c r="CO17" s="5">
+        <f t="shared" si="37"/>
+        <v>638033.65149393235</v>
+      </c>
+      <c r="CP17" s="5">
+        <f t="shared" si="37"/>
+        <v>631653.31497899303</v>
+      </c>
+      <c r="CQ17" s="5">
+        <f t="shared" si="37"/>
+        <v>625336.78182920313</v>
+      </c>
+      <c r="CR17" s="5">
+        <f t="shared" si="37"/>
+        <v>619083.41401091113</v>
+      </c>
+      <c r="CS17" s="5">
+        <f t="shared" si="37"/>
+        <v>612892.579870802</v>
+      </c>
+      <c r="CT17" s="5">
+        <f t="shared" si="37"/>
+        <v>606763.65407209401</v>
+      </c>
+      <c r="CU17" s="5">
+        <f t="shared" si="37"/>
+        <v>600696.01753137307</v>
+      </c>
+      <c r="CV17" s="5">
+        <f t="shared" si="37"/>
+        <v>594689.05735605932</v>
+      </c>
+      <c r="CW17" s="5">
+        <f t="shared" si="37"/>
+        <v>588742.16678249871</v>
+      </c>
+      <c r="CX17" s="5">
+        <f t="shared" si="37"/>
+        <v>582854.74511467374</v>
+      </c>
+      <c r="CY17" s="5">
+        <f t="shared" si="37"/>
+        <v>577026.19766352698</v>
+      </c>
+      <c r="CZ17" s="5">
+        <f t="shared" si="37"/>
+        <v>571255.93568689167</v>
+      </c>
+      <c r="DA17" s="5">
+        <f t="shared" si="37"/>
+        <v>565543.3763300227</v>
+      </c>
+      <c r="DB17" s="5">
+        <f t="shared" si="37"/>
+        <v>559887.94256672252</v>
+      </c>
+      <c r="DC17" s="5">
+        <f t="shared" si="37"/>
+        <v>554289.06314105529</v>
+      </c>
+      <c r="DD17" s="5">
+        <f t="shared" si="37"/>
+        <v>548746.17250964476</v>
+      </c>
+      <c r="DE17" s="5">
+        <f t="shared" si="37"/>
+        <v>543258.71078454831</v>
+      </c>
+      <c r="DF17" s="5">
+        <f t="shared" si="37"/>
+        <v>537826.12367670285</v>
+      </c>
+      <c r="DG17" s="5">
+        <f t="shared" si="37"/>
+        <v>532447.86243993579</v>
+      </c>
+      <c r="DH17" s="5">
+        <f t="shared" si="37"/>
+        <v>527123.38381553639</v>
+      </c>
+      <c r="DI17" s="5">
+        <f t="shared" si="37"/>
+        <v>521852.14997738105</v>
+      </c>
+      <c r="DJ17" s="5">
+        <f t="shared" si="37"/>
+        <v>516633.62847760721</v>
+      </c>
+      <c r="DK17" s="5">
+        <f t="shared" si="37"/>
+        <v>511467.29219283111</v>
+      </c>
+      <c r="DL17" s="5">
+        <f t="shared" si="37"/>
+        <v>506352.61927090277</v>
+      </c>
+      <c r="DM17" s="5">
+        <f t="shared" si="37"/>
+        <v>501289.09307819372</v>
+      </c>
+    </row>
+    <row r="18" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="G14" s="8">
-        <f t="shared" ref="G14:N14" si="8">+G13/G15</f>
+      <c r="E18" s="8"/>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:N18" si="38">+G17/G19</f>
         <v>-0.16997387359951274</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" si="8"/>
+      <c r="H18" s="8">
+        <f t="shared" si="38"/>
         <v>-0.12925339454538382</v>
       </c>
-      <c r="I14" s="8">
-        <f t="shared" si="8"/>
+      <c r="I18" s="8">
+        <f t="shared" si="38"/>
         <v>-0.12730641088850045</v>
       </c>
-      <c r="J14" s="8" t="e">
-        <f t="shared" si="8"/>
+      <c r="J18" s="8" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="8">
-        <f t="shared" si="8"/>
+      <c r="K18" s="8">
+        <f t="shared" si="38"/>
         <v>-0.10911066477890093</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="8"/>
+      <c r="L18" s="8">
+        <f t="shared" si="38"/>
         <v>-9.2121719807100516E-2</v>
       </c>
-      <c r="M14" s="8">
-        <f t="shared" si="8"/>
+      <c r="M18" s="8">
+        <f t="shared" si="38"/>
         <v>-8.945851403213563E-2</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" si="8"/>
+      <c r="N18" s="8">
+        <f t="shared" si="38"/>
         <v>-5.8462500000000001E-2</v>
       </c>
-      <c r="P14" s="8" t="e">
-        <f t="shared" ref="P14:R14" si="9">+P13/P15</f>
+      <c r="P18" s="8" t="e">
+        <f t="shared" ref="P18:X18" si="39">+P17/P19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="8" t="e">
-        <f t="shared" si="9"/>
+      <c r="Q18" s="8" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="8">
-        <f t="shared" si="9"/>
+      <c r="R18" s="8">
+        <f t="shared" si="39"/>
         <v>-0.33770752145750726</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="S18" s="8">
+        <f t="shared" si="39"/>
+        <v>-0.22729044642857146</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="39"/>
+        <v>-0.20160613392857152</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="39"/>
+        <v>-0.12978136875000013</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="39"/>
+        <v>3.2012713660714093E-2</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="39"/>
+        <v>0.36728120166964251</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="39"/>
+        <v>1.034937033458035</v>
+      </c>
+    </row>
+    <row r="19" spans="2:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>124778</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H19" s="5">
         <v>128515</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I19" s="5">
         <v>133866</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
         <v>151855</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L19" s="5">
         <v>171903</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M19" s="5">
         <v>188389</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N19" s="5">
         <v>280000</v>
       </c>
-      <c r="R15" s="1">
-        <f>AVERAGE(K15:N15)</f>
+      <c r="R19" s="1">
+        <f>AVERAGE(K19:N19)</f>
         <v>198036.75</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="S19" s="1">
+        <v>280000</v>
+      </c>
+      <c r="T19" s="1">
+        <v>280000</v>
+      </c>
+      <c r="U19" s="1">
+        <v>280000</v>
+      </c>
+      <c r="V19" s="1">
+        <v>280000</v>
+      </c>
+      <c r="W19" s="1">
+        <v>280000</v>
+      </c>
+      <c r="X19" s="1">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="9">
-        <f>+K3/G3-1</f>
+      <c r="K21" s="9">
+        <f>+K7/G7-1</f>
         <v>0.3866424352567015</v>
       </c>
-      <c r="L17" s="9">
-        <f>+L3/H3-1</f>
+      <c r="L21" s="9">
+        <f>+L7/H7-1</f>
         <v>-7.2437631499849719E-2</v>
       </c>
-      <c r="M17" s="9">
-        <f>+M3/I3-1</f>
+      <c r="M21" s="9">
+        <f>+M7/I7-1</f>
         <v>-0.23413848631239931</v>
       </c>
-      <c r="N17" s="9">
-        <f>+N3/J3-1</f>
+      <c r="N21" s="9">
+        <f>+N7/J7-1</f>
         <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <f t="shared" ref="S21:W21" si="40">+S7/R7-1</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="U21" s="12">
+        <f t="shared" si="40"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="X21" s="12">
+        <f>+X7/W7-1</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="Y24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="Y25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="Y26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>NPV(Z24,S17:DM17)/1000</f>
+        <v>856.28801693162768</v>
+      </c>
+    </row>
+    <row r="27" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="Y27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z27" s="4">
+        <f>Z26/Main!L3</f>
+        <v>3.0538545493439515</v>
       </c>
     </row>
   </sheetData>
@@ -1539,33 +2678,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFACA66-1E8E-4FF9-86A9-70FF6EBF1DA3}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="7">
+        <f>AVERAGE(G3:G31)</f>
+        <v>57.4</v>
+      </c>
+      <c r="K1" s="7">
+        <f>AVERAGE(K3:K31)</f>
+        <v>234.4</v>
+      </c>
+      <c r="N1" s="7">
+        <f>AVERAGE(N3:N31)</f>
+        <v>408</v>
+      </c>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -1591,10 +2748,22 @@
         <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -1617,6 +2786,423 @@
       <c r="H3" s="9">
         <f>+E3/D3-1</f>
         <v>-0.53517705316266473</v>
+      </c>
+      <c r="I3" s="4">
+        <v>53.52</v>
+      </c>
+      <c r="J3" s="13">
+        <v>43566</v>
+      </c>
+      <c r="K3" s="1">
+        <f>+J3-C3</f>
+        <v>204</v>
+      </c>
+      <c r="L3" s="4">
+        <v>20.65</v>
+      </c>
+      <c r="M3" s="13">
+        <v>43748</v>
+      </c>
+      <c r="N3" s="1">
+        <f>+M3-C3</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43991</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2391.92</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1153.5115000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44032</v>
+      </c>
+      <c r="G4" s="5">
+        <f>+F4-C4</f>
+        <v>41</v>
+      </c>
+      <c r="H4" s="9">
+        <f>+E4/D4-1</f>
+        <v>-0.51774662196060062</v>
+      </c>
+      <c r="I4" s="4">
+        <v>573.00570000000005</v>
+      </c>
+      <c r="J4" s="13">
+        <v>44098</v>
+      </c>
+      <c r="K4" s="1">
+        <f>+J4-C4</f>
+        <v>107</v>
+      </c>
+      <c r="L4" s="4">
+        <f>+D4*0.1</f>
+        <v>239.19200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11">
+        <v>39384</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1398</v>
+      </c>
+      <c r="E5" s="2">
+        <v>669</v>
+      </c>
+      <c r="F5" s="11">
+        <v>39456</v>
+      </c>
+      <c r="G5" s="5">
+        <f>+F5-C5</f>
+        <v>72</v>
+      </c>
+      <c r="H5" s="9">
+        <f>+E5/D5-1</f>
+        <v>-0.52145922746781115</v>
+      </c>
+      <c r="I5" s="4">
+        <v>336</v>
+      </c>
+      <c r="J5" s="13">
+        <v>39724</v>
+      </c>
+      <c r="K5" s="1">
+        <f>+J5-C5</f>
+        <v>340</v>
+      </c>
+      <c r="L5" s="4">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="M5" s="13">
+        <v>39762</v>
+      </c>
+      <c r="N5" s="1">
+        <f>+M5-C5</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43677</v>
+      </c>
+      <c r="D6" s="8">
+        <v>130</v>
+      </c>
+      <c r="E6" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43732</v>
+      </c>
+      <c r="G6" s="5">
+        <f>+F6-C6</f>
+        <v>55</v>
+      </c>
+      <c r="H6" s="9">
+        <f>+E6/D6-1</f>
+        <v>-0.52384615384615385</v>
+      </c>
+      <c r="I6" s="4">
+        <f>+D6*0.25</f>
+        <v>32.5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>43769</v>
+      </c>
+      <c r="K6" s="1">
+        <f>+J6-C6</f>
+        <v>92</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+      <c r="M6" s="13">
+        <v>43861</v>
+      </c>
+      <c r="N6" s="1">
+        <f>+M6-C6</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44681</v>
+      </c>
+      <c r="D7" s="8">
+        <v>128</v>
+      </c>
+      <c r="E7" s="8">
+        <f>+D7*0.5</f>
+        <v>64</v>
+      </c>
+      <c r="F7" s="11">
+        <v>44795</v>
+      </c>
+      <c r="G7" s="5">
+        <f>+F7-C7</f>
+        <v>114</v>
+      </c>
+      <c r="H7" s="9">
+        <f>+E7/D7-1</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I7">
+        <v>27.03</v>
+      </c>
+      <c r="J7" s="13">
+        <v>45110</v>
+      </c>
+      <c r="K7" s="1">
+        <f>+J7-C7</f>
+        <v>429</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="M7" s="13">
+        <v>45365</v>
+      </c>
+      <c r="N7" s="1">
+        <f>+M7-C7</f>
+        <v>684</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/RGTI.xlsx
+++ b/RGTI.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0475027-89A8-C94F-A17A-D4D6583C0375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0486B-4FDE-4417-86CA-DAC6659D13CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" activeTab="2" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
+    <workbookView xWindow="12930" yWindow="2400" windowWidth="22530" windowHeight="16580" xr2:uid="{0F3031DF-C328-47BF-BD62-1F9BBABF39E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Bubbles" sheetId="3" r:id="rId3"/>
-    <sheet name="DNA" sheetId="4" r:id="rId4"/>
+    <sheet name="Gates" sheetId="5" r:id="rId3"/>
+    <sheet name="Bubbles" sheetId="3" r:id="rId4"/>
+    <sheet name="DNA" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -421,11 +422,26 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>Final POS</t>
+  </si>
+  <si>
+    <t>Factors 15 into 3 and 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -520,7 +536,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +606,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1035,11 +1054,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB117D3D-E51C-463E-9076-4251291F404E}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1047,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>18.28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1065,16 +1086,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>5125.6353885199997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+        <v>3370.3576241799997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1104,16 +1125,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>4887.9633885200001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+        <v>3132.6856241799996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>117</v>
       </c>
@@ -1143,12 +1164,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>40</v>
       </c>
@@ -1172,21 +1193,21 @@
       <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.6640625" style="2"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.6328125" style="2"/>
+    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1318,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1326,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1314,7 +1335,7 @@
         <v>2160000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1323,7 +1344,7 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>2077096.8464353548</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1503,7 +1524,7 @@
         <v>519274.21160883876</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1621,7 @@
         <v>1557822.634826516</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>139360.4855099431</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>69658.844379675706</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>209019.32988961879</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1974,7 +1995,7 @@
         <v>1348803.3049368972</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>1348803.3049368972</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>134880.33049368972</v>
       </c>
     </row>
-    <row r="17" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2604,7 +2625,7 @@
         <v>501289.09307819372</v>
       </c>
     </row>
-    <row r="18" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2678,7 +2699,7 @@
         <v>1.034937033458035</v>
       </c>
     </row>
-    <row r="19" spans="2:117" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:117" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="21" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2776,7 +2797,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:117" x14ac:dyDescent="0.25">
       <c r="Y24" t="s">
         <v>55</v>
       </c>
@@ -2784,7 +2805,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:117" x14ac:dyDescent="0.25">
       <c r="Y25" t="s">
         <v>56</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:117" x14ac:dyDescent="0.25">
       <c r="Y26" t="s">
         <v>57</v>
       </c>
@@ -2801,7 +2822,7 @@
         <v>856.28801693162768</v>
       </c>
     </row>
-    <row r="27" spans="2:117" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:117" x14ac:dyDescent="0.25">
       <c r="Y27" t="s">
         <v>58</v>
       </c>
@@ -2817,40 +2838,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523380BC-AC04-4186-93F5-674BB7AE9F32}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="36">
+        <v>800</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.995</v>
+      </c>
+      <c r="E5" s="37">
+        <f>0.995^800</f>
+        <v>1.8132788524664253E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1600</v>
+      </c>
+      <c r="D6">
+        <v>0.999</v>
+      </c>
+      <c r="E6" s="35">
+        <f>+D6^C6</f>
+        <v>0.20173495769715821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3200</v>
+      </c>
+      <c r="D7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E7" s="35">
+        <f>+D7^C7</f>
+        <v>0.72613741800749909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>30000</v>
+      </c>
+      <c r="D8">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="E8" s="35">
+        <f>+D8^C8</f>
+        <v>0.74081710944894297</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0A16106D-4733-4B0C-87A8-B51316FD96C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFACA66-1E8E-4FF9-86A9-70FF6EBF1DA3}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="281" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="281" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2981,7 @@
       </c>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +3040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +3091,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -3029,7 +3136,7 @@
         <v>239.19200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -3080,7 +3187,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>59</v>
       </c>
@@ -3132,7 +3239,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>85</v>
       </c>
@@ -3185,7 +3292,7 @@
       </c>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -3236,7 +3343,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -3287,7 +3394,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3338,7 +3445,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -3390,7 +3497,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -3441,7 +3548,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -3492,37 +3599,37 @@
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>69</v>
       </c>
@@ -3531,17 +3638,17 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>74</v>
       </c>
@@ -3555,13 +3662,13 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>75</v>
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>76</v>
       </c>
@@ -3614,7 +3721,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>77</v>
       </c>
@@ -3623,177 +3730,177 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>124</v>
       </c>
@@ -3806,7 +3913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6933E986-20CC-45A7-98EC-02A09519EE71}">
   <dimension ref="A1:G944"/>
   <sheetViews>
@@ -3815,18 +3922,18 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="20"/>
+    <col min="3" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34"/>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>126</v>
       </c>
@@ -3835,7 +3942,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45672</v>
       </c>
@@ -3854,7 +3961,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45671</v>
       </c>
@@ -3866,7 +3973,7 @@
         <v>-0.29999999999999893</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>45670</v>
       </c>
@@ -3878,7 +3985,7 @@
         <v>-0.91999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45667</v>
       </c>
@@ -3890,7 +3997,7 @@
         <v>-1.33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45665</v>
       </c>
@@ -3902,7 +4009,7 @@
         <v>-8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>45664</v>
       </c>
@@ -3914,7 +4021,7 @@
         <v>-0.45000000000000107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45663</v>
       </c>
@@ -3926,7 +4033,7 @@
         <v>0.11000000000000121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45660</v>
       </c>
@@ -3938,7 +4045,7 @@
         <v>1.3199999999999985</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45659</v>
       </c>
@@ -3950,7 +4057,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>45657</v>
       </c>
@@ -3962,7 +4069,7 @@
         <v>0.38000000000000078</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45656</v>
       </c>
@@ -3974,7 +4081,7 @@
         <v>-0.22000000000000064</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45653</v>
       </c>
@@ -3986,7 +4093,7 @@
         <v>-0.5600000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45652</v>
       </c>
@@ -3998,7 +4105,7 @@
         <v>0.85000000000000142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45650</v>
       </c>
@@ -4010,7 +4117,7 @@
         <v>-9.0000000000001634E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45649</v>
       </c>
@@ -4022,7 +4129,7 @@
         <v>-0.61999999999999922</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45646</v>
       </c>
@@ -4034,7 +4141,7 @@
         <v>1.3399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>45645</v>
       </c>
@@ -4046,7 +4153,7 @@
         <v>-4.9999999999998934E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>45644</v>
       </c>
@@ -4058,7 +4165,7 @@
         <v>-0.82000000000000028</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>45643</v>
       </c>
@@ -4070,7 +4177,7 @@
         <v>0.17999999999999972</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>45642</v>
       </c>
@@ -4082,7 +4189,7 @@
         <v>-9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>45639</v>
       </c>
@@ -4094,7 +4201,7 @@
         <v>-0.89000000000000057</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>45638</v>
       </c>
@@ -4106,7 +4213,7 @@
         <v>-0.36999999999999922</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>45637</v>
       </c>
@@ -4118,7 +4225,7 @@
         <v>-0.33000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>45636</v>
       </c>
@@ -4130,7 +4237,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>45635</v>
       </c>
@@ -4142,7 +4249,7 @@
         <v>-0.96000000000000085</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>45632</v>
       </c>
@@ -4154,7 +4261,7 @@
         <v>1.9900000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>45631</v>
       </c>
@@ -4166,7 +4273,7 @@
         <v>-0.74000000000000021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>45630</v>
       </c>
@@ -4178,7 +4285,7 @@
         <v>0.67999999999999972</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>45629</v>
       </c>
@@ -4190,7 +4297,7 @@
         <v>0.12000000000000099</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>45628</v>
       </c>
@@ -4202,7 +4309,7 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>45625</v>
       </c>
@@ -4214,7 +4321,7 @@
         <v>0.4399999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>45623</v>
       </c>
@@ -4226,7 +4333,7 @@
         <v>0.30999999999999961</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>45622</v>
       </c>
@@ -4238,7 +4345,7 @@
         <v>-0.19000000000000039</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>45621</v>
       </c>
@@ -4250,7 +4357,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45618</v>
       </c>
@@ -4262,7 +4369,7 @@
         <v>0.58999999999999986</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>45617</v>
       </c>
@@ -4274,7 +4381,7 @@
         <v>0.22999999999999954</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>45616</v>
       </c>
@@ -4286,7 +4393,7 @@
         <v>-8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>45615</v>
       </c>
@@ -4298,7 +4405,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>45614</v>
       </c>
@@ -4310,7 +4417,7 @@
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>45611</v>
       </c>
@@ -4322,7 +4429,7 @@
         <v>-0.9399999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>45610</v>
       </c>
@@ -4334,7 +4441,7 @@
         <v>-1.29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>45609</v>
       </c>
@@ -4346,7 +4453,7 @@
         <v>0.20999999999999908</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>45608</v>
       </c>
@@ -4358,7 +4465,7 @@
         <v>-0.36999999999999922</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>45607</v>
       </c>
@@ -4370,7 +4477,7 @@
         <v>0.26999999999999957</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45604</v>
       </c>
@@ -4382,7 +4489,7 @@
         <v>0.10999999999999943</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45603</v>
       </c>
@@ -4394,7 +4501,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>45602</v>
       </c>
@@ -4406,7 +4513,7 @@
         <v>0.32000000000000028</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>45601</v>
       </c>
@@ -4418,7 +4525,7 @@
         <v>0.36000000000000032</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>45600</v>
       </c>
@@ -4430,7 +4537,7 @@
         <v>-0.12000000000000011</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45597</v>
       </c>
@@ -4442,7 +4549,7 @@
         <v>0.12999999999999989</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>45596</v>
       </c>
@@ -4454,7 +4561,7 @@
         <v>-0.21999999999999975</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>45595</v>
       </c>
@@ -4466,7 +4573,7 @@
         <v>-0.16999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>45594</v>
       </c>
@@ -4478,7 +4585,7 @@
         <v>-0.25999999999999979</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>45593</v>
       </c>
@@ -4490,7 +4597,7 @@
         <v>0.10999999999999943</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>45590</v>
       </c>
@@ -4502,7 +4609,7 @@
         <v>0.21999999999999975</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>45589</v>
       </c>
@@ -4514,7 +4621,7 @@
         <v>-1.1100000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45588</v>
       </c>
@@ -4526,7 +4633,7 @@
         <v>-0.33000000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>45587</v>
       </c>
@@ -4538,7 +4645,7 @@
         <v>0.46000000000000085</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>45586</v>
       </c>
@@ -4550,7 +4657,7 @@
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>45583</v>
       </c>
@@ -4562,7 +4669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>45582</v>
       </c>
@@ -4574,7 +4681,7 @@
         <v>0.11000000000000121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>45581</v>
       </c>
@@ -4586,7 +4693,7 @@
         <v>0.47999999999999954</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>45580</v>
       </c>
@@ -4598,7 +4705,7 @@
         <v>0.50999999999999979</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>45579</v>
       </c>
@@ -4610,7 +4717,7 @@
         <v>-4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>45576</v>
       </c>
@@ -4622,7 +4729,7 @@
         <v>0.15000000000000036</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>45575</v>
       </c>
@@ -4634,7 +4741,7 @@
         <v>-0.73000000000000043</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>45574</v>
       </c>
@@ -4646,7 +4753,7 @@
         <v>-0.42999999999999972</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>45573</v>
       </c>
@@ -4658,7 +4765,7 @@
         <v>-1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>45572</v>
       </c>
@@ -4670,7 +4777,7 @@
         <v>2.9999999999999361E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>45569</v>
       </c>
@@ -4682,7 +4789,7 @@
         <v>0.21000000000000085</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>45568</v>
       </c>
@@ -4694,7 +4801,7 @@
         <v>0.40999999999999925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>45567</v>
       </c>
@@ -4706,7 +4813,7 @@
         <v>0.11000000000000032</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45566</v>
       </c>
@@ -4718,7 +4825,7 @@
         <v>-0.55000000000000071</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>45565</v>
       </c>
@@ -4730,7 +4837,7 @@
         <v>6.0000000000000497E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45562</v>
       </c>
@@ -4742,7 +4849,7 @@
         <v>0.38999999999999968</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>45561</v>
       </c>
@@ -4754,7 +4861,7 @@
         <v>-5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45560</v>
       </c>
@@ -4766,7 +4873,7 @@
         <v>-0.3100000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45559</v>
       </c>
@@ -4778,7 +4885,7 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45558</v>
       </c>
@@ -4790,7 +4897,7 @@
         <v>-0.17999999999999972</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45555</v>
       </c>
@@ -4802,7 +4909,7 @@
         <v>-0.30000000000000071</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45554</v>
       </c>
@@ -4814,7 +4921,7 @@
         <v>0.90000000000000036</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45553</v>
       </c>
@@ -4826,7 +4933,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45552</v>
       </c>
@@ -4838,7 +4945,7 @@
         <v>0.57999999999999918</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45551</v>
       </c>
@@ -4850,7 +4957,7 @@
         <v>-8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45548</v>
       </c>
@@ -4862,7 +4969,7 @@
         <v>5.0000000000000711E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45547</v>
       </c>
@@ -4874,7 +4981,7 @@
         <v>2.9999999999999361E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45546</v>
       </c>
@@ -4886,7 +4993,7 @@
         <v>0.36000000000000032</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45545</v>
       </c>
@@ -4898,7 +5005,7 @@
         <v>0.51999999999999957</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45544</v>
       </c>
@@ -4910,7 +5017,7 @@
         <v>-0.29000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45541</v>
       </c>
@@ -4922,7 +5029,7 @@
         <v>-0.48999999999999932</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>45540</v>
       </c>
@@ -4934,7 +5041,7 @@
         <v>-0.10000000000000053</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45539</v>
       </c>
@@ -4946,7 +5053,7 @@
         <v>0.14000000000000057</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45538</v>
       </c>
@@ -4958,7 +5065,7 @@
         <v>-0.59000000000000075</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45534</v>
       </c>
@@ -4970,7 +5077,7 @@
         <v>-0.39999999999999947</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45533</v>
       </c>
@@ -4982,7 +5089,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45532</v>
       </c>
@@ -4994,7 +5101,7 @@
         <v>-0.45000000000000018</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45531</v>
       </c>
@@ -5006,7 +5113,7 @@
         <v>-0.34999999999999964</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45530</v>
       </c>
@@ -5018,7 +5125,7 @@
         <v>-0.27000000000000046</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45527</v>
       </c>
@@ -5030,7 +5137,7 @@
         <v>-0.15000000000000036</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45526</v>
       </c>
@@ -5042,7 +5149,7 @@
         <v>-1.0099999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45525</v>
       </c>
@@ -5054,7 +5161,7 @@
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45524</v>
       </c>
@@ -5066,7 +5173,7 @@
         <v>-1.6499999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>45523</v>
       </c>
@@ -5078,7 +5185,7 @@
         <v>0.47999999999999865</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>45520</v>
       </c>
@@ -5090,7 +5197,7 @@
         <v>-1.3199999999999985</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>45519</v>
       </c>
@@ -5102,7 +5209,7 @@
         <v>0.51999999999999957</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>45518</v>
       </c>
@@ -5114,7 +5221,7 @@
         <v>-1.5600000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>45517</v>
       </c>
@@ -5126,7 +5233,7 @@
         <v>0.75999999999999979</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>45516</v>
       </c>
@@ -5138,7 +5245,7 @@
         <v>-0.32000000000000028</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>45513</v>
       </c>
@@ -5150,7 +5257,7 @@
         <v>-0.63999999999999879</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>45512</v>
       </c>
@@ -5162,7 +5269,7 @@
         <v>0.47999999999999865</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>45511</v>
       </c>
@@ -5174,7 +5281,7 @@
         <v>-0.55999999999999872</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>45510</v>
       </c>
@@ -5186,7 +5293,7 @@
         <v>-0.64000000000000057</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>45509</v>
       </c>
@@ -5198,7 +5305,7 @@
         <v>-0.4399999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>45506</v>
       </c>
@@ -5210,7 +5317,7 @@
         <v>-2.2000000000000011</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>45505</v>
       </c>
@@ -5222,7 +5329,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>45504</v>
       </c>
@@ -5234,7 +5341,7 @@
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>45503</v>
       </c>
@@ -5246,7 +5353,7 @@
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>45502</v>
       </c>
@@ -5258,7 +5365,7 @@
         <v>-0.24000000000000021</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>45499</v>
       </c>
@@ -5270,7 +5377,7 @@
         <v>1.3200000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>45498</v>
       </c>
@@ -5282,7 +5389,7 @@
         <v>1.3600000000000012</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>45497</v>
       </c>
@@ -5294,7 +5401,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>45496</v>
       </c>
@@ -5306,7 +5413,7 @@
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>45495</v>
       </c>
@@ -5318,7 +5425,7 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>45492</v>
       </c>
@@ -5330,7 +5437,7 @@
         <v>-0.91999999999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>45491</v>
       </c>
@@ -5342,7 +5449,7 @@
         <v>-1.1600000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>45490</v>
       </c>
@@ -5354,7 +5461,7 @@
         <v>-0.72000000000000064</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>45489</v>
       </c>
@@ -5366,7 +5473,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>45488</v>
       </c>
@@ -5378,7 +5485,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>45485</v>
       </c>
@@ -5390,7 +5497,7 @@
         <v>-1.2800000000000011</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>45484</v>
       </c>
@@ -5402,7 +5509,7 @@
         <v>-0.19999999999999929</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>45483</v>
       </c>
@@ -5414,7 +5521,7 @@
         <v>0.64000000000000057</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>45482</v>
       </c>
@@ -5426,7 +5533,7 @@
         <v>-1.2800000000000011</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>45481</v>
       </c>
@@ -5438,7 +5545,7 @@
         <v>0.28000000000000114</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>45478</v>
       </c>
@@ -5450,7 +5557,7 @@
         <v>-1.6799999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>45476</v>
       </c>
@@ -5462,7 +5569,7 @@
         <v>1.1599999999999984</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>45475</v>
       </c>
@@ -5474,7 +5581,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>45474</v>
       </c>
@@ -5486,7 +5593,7 @@
         <v>-0.4399999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>45471</v>
       </c>
@@ -5498,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>45470</v>
       </c>
@@ -5510,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>45469</v>
       </c>
@@ -5522,7 +5629,7 @@
         <v>-1.4400000000000013</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>45468</v>
       </c>
@@ -5534,7 +5641,7 @@
         <v>-1.8399999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>45467</v>
       </c>
@@ -5546,7 +5653,7 @@
         <v>-2.3200000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>45464</v>
       </c>
@@ -5558,7 +5665,7 @@
         <v>0.60000000000000142</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>45463</v>
       </c>
@@ -5570,7 +5677,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>45461</v>
       </c>
@@ -5582,7 +5689,7 @@
         <v>-0.32000000000000028</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>45460</v>
       </c>
@@ -5594,7 +5701,7 @@
         <v>-0.83999999999999986</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>45457</v>
       </c>
@@ -5606,7 +5713,7 @@
         <v>-0.48000000000000043</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>45456</v>
       </c>
@@ -5618,7 +5725,7 @@
         <v>-1.8399999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>45455</v>
       </c>
@@ -5630,7 +5737,7 @@
         <v>-0.32000000000000028</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>45454</v>
       </c>
@@ -5642,7 +5749,7 @@
         <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>45453</v>
       </c>
@@ -5654,7 +5761,7 @@
         <v>-0.11999999999999744</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>45450</v>
       </c>
@@ -5666,7 +5773,7 @@
         <v>-1.4400000000000013</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>45449</v>
       </c>
@@ -5678,7 +5785,7 @@
         <v>1.1600000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>45448</v>
       </c>
@@ -5690,7 +5797,7 @@
         <v>-0.32000000000000028</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>45447</v>
       </c>
@@ -5702,7 +5809,7 @@
         <v>-0.51999999999999957</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>45446</v>
       </c>
@@ -5714,7 +5821,7 @@
         <v>0.51999999999999957</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>45443</v>
       </c>
@@ -5726,7 +5833,7 @@
         <v>-1.1999999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>45442</v>
       </c>
@@ -5738,7 +5845,7 @@
         <v>-8.0000000000001847E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>45441</v>
       </c>
@@ -5750,7 +5857,7 @@
         <v>-2.5599999999999987</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>45440</v>
       </c>
@@ -5762,7 +5869,7 @@
         <v>-1.4400000000000013</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>45436</v>
       </c>
@@ -5774,7 +5881,7 @@
         <v>0.16000000000000014</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>45435</v>
       </c>
@@ -5786,7 +5893,7 @@
         <v>-1.759999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>45434</v>
       </c>
@@ -5798,7 +5905,7 @@
         <v>-1.1999999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>45433</v>
       </c>
@@ -5810,7 +5917,7 @@
         <v>-1.4000000000000021</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>45432</v>
       </c>
@@ -5822,7 +5929,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>45429</v>
       </c>
@@ -5834,7 +5941,7 @@
         <v>-1.3200000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>45428</v>
       </c>
@@ -5846,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>45427</v>
       </c>
@@ -5858,7 +5965,7 @@
         <v>-0.96000000000000085</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>45426</v>
       </c>
@@ -5870,7 +5977,7 @@
         <v>0.88000000000000256</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>45425</v>
       </c>
@@ -5882,7 +5989,7 @@
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>45422</v>
       </c>
@@ -5894,7 +6001,7 @@
         <v>-6.3599999999999959</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>45421</v>
       </c>
@@ -5906,7 +6013,7 @@
         <v>1.0799999999999983</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>45420</v>
       </c>
@@ -5918,7 +6025,7 @@
         <v>-1.6400000000000006</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>45419</v>
       </c>
@@ -5930,7 +6037,7 @@
         <v>-2.1600000000000037</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>45418</v>
       </c>
@@ -5942,7 +6049,7 @@
         <v>1.3200000000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>45415</v>
       </c>
@@ -5954,7 +6061,7 @@
         <v>3.7600000000000051</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>45414</v>
       </c>
@@ -5966,7 +6073,7 @@
         <v>0.75999999999999801</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>45413</v>
       </c>
@@ -5978,7 +6085,7 @@
         <v>-1.9600000000000009</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>45412</v>
       </c>
@@ -5990,7 +6097,7 @@
         <v>-3.9600000000000009</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>45411</v>
       </c>
@@ -6002,7 +6109,7 @@
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>45408</v>
       </c>
@@ -6014,7 +6121,7 @@
         <v>3.2799999999999976</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>45407</v>
       </c>
@@ -6026,7 +6133,7 @@
         <v>-2.7200000000000024</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>45406</v>
       </c>
@@ -6038,7 +6145,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>45405</v>
       </c>
@@ -6050,7 +6157,7 @@
         <v>1.1200000000000045</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>45404</v>
       </c>
@@ -6062,7 +6169,7 @@
         <v>-0.88000000000000256</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>45401</v>
       </c>
@@ -6074,7 +6181,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>45400</v>
       </c>
@@ -6086,7 +6193,7 @@
         <v>2.1199999999999974</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>45399</v>
       </c>
@@ -6098,7 +6205,7 @@
         <v>-1.6799999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>45398</v>
       </c>
@@ -6110,7 +6217,7 @@
         <v>-1.4399999999999977</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>45397</v>
       </c>
@@ -6122,7 +6229,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>45394</v>
       </c>
@@ -6134,7 +6241,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>45393</v>
       </c>
@@ -6146,7 +6253,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>45392</v>
       </c>
@@ -6158,7 +6265,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>45391</v>
       </c>
@@ -6170,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>45390</v>
       </c>
@@ -6182,7 +6289,7 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>45387</v>
       </c>
@@ -6194,7 +6301,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>45386</v>
       </c>
@@ -6206,7 +6313,7 @@
         <v>-0.80000000000000426</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>45385</v>
       </c>
@@ -6218,7 +6325,7 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>45384</v>
       </c>
@@ -6230,7 +6337,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>45383</v>
       </c>
@@ -6242,7 +6349,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="203" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>45379</v>
       </c>
@@ -6254,7 +6361,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>45378</v>
       </c>
@@ -6266,7 +6373,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>45377</v>
       </c>
@@ -6278,7 +6385,7 @@
         <v>-0.80000000000000426</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>45376</v>
       </c>
@@ -6290,7 +6397,7 @@
         <v>0.80000000000000426</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>45373</v>
       </c>
@@ -6302,7 +6409,7 @@
         <v>-2.8000000000000043</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>45372</v>
       </c>
@@ -6314,7 +6421,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>45371</v>
       </c>
@@ -6326,7 +6433,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>45370</v>
       </c>
@@ -6338,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>45369</v>
       </c>
@@ -6350,7 +6457,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>45366</v>
       </c>
@@ -6362,7 +6469,7 @@
         <v>0.80000000000000426</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>45365</v>
       </c>
@@ -6374,7 +6481,7 @@
         <v>-4.3999999999999986</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>45364</v>
       </c>
@@ -6386,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>45363</v>
       </c>
@@ -6398,7 +6505,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>45362</v>
       </c>
@@ -6410,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>45359</v>
       </c>
@@ -6422,7 +6529,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>45358</v>
       </c>
@@ -6434,7 +6541,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>45357</v>
       </c>
@@ -6446,7 +6553,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>45356</v>
       </c>
@@ -6458,7 +6565,7 @@
         <v>-4.3999999999999986</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>45355</v>
       </c>
@@ -6470,7 +6577,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>45352</v>
       </c>
@@ -6482,7 +6589,7 @@
         <v>-9.1999999999999957</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>45351</v>
       </c>
@@ -6494,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>45350</v>
       </c>
@@ -6506,7 +6613,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>45349</v>
       </c>
@@ -6518,7 +6625,7 @@
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>45348</v>
       </c>
@@ -6530,7 +6637,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>45345</v>
       </c>
@@ -6542,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>45344</v>
       </c>
@@ -6554,7 +6661,7 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>45343</v>
       </c>
@@ -6566,7 +6673,7 @@
         <v>-3.1999999999999957</v>
       </c>
     </row>
-    <row r="230" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>45342</v>
       </c>
@@ -6578,7 +6685,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>45338</v>
       </c>
@@ -6590,7 +6697,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>45337</v>
       </c>
@@ -6602,7 +6709,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>45336</v>
       </c>
@@ -6614,7 +6721,7 @@
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="234" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>45335</v>
       </c>
@@ -6626,7 +6733,7 @@
         <v>-6.3999999999999986</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>45334</v>
       </c>
@@ -6638,7 +6745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>45331</v>
       </c>
@@ -6650,7 +6757,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>45330</v>
       </c>
@@ -6662,7 +6769,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>45329</v>
       </c>
@@ -6674,7 +6781,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>45328</v>
       </c>
@@ -6686,7 +6793,7 @@
         <v>2.8000000000000043</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>45327</v>
       </c>
@@ -6698,7 +6805,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>45324</v>
       </c>
@@ -6710,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>45323</v>
       </c>
@@ -6722,7 +6829,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>45322</v>
       </c>
@@ -6734,7 +6841,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="244" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>45321</v>
       </c>
@@ -6746,7 +6853,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="245" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>45320</v>
       </c>
@@ -6758,7 +6865,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="246" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>45317</v>
       </c>
@@ -6770,7 +6877,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>45316</v>
       </c>
@@ -6782,7 +6889,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>45315</v>
       </c>
@@ -6794,7 +6901,7 @@
         <v>-1.1999999999999957</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>45314</v>
       </c>
@@ -6806,7 +6913,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>45313</v>
       </c>
@@ -6818,7 +6925,7 @@
         <v>0.80000000000000426</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>45310</v>
       </c>
@@ -6830,7 +6937,7 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>45309</v>
       </c>
@@ -6842,7 +6949,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>45308</v>
       </c>
@@ -6854,7 +6961,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="254" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>45307</v>
       </c>
@@ -6866,7 +6973,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>45303</v>
       </c>
@@ -6878,7 +6985,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="256" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>45302</v>
       </c>
@@ -6890,7 +6997,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>45301</v>
       </c>
@@ -6902,7 +7009,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>45300</v>
       </c>
@@ -6914,7 +7021,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>45299</v>
       </c>
@@ -6926,7 +7033,7 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>45296</v>
       </c>
@@ -6938,7 +7045,7 @@
         <v>-1.1999999999999957</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>45295</v>
       </c>
@@ -6950,7 +7057,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>45294</v>
       </c>
@@ -6962,7 +7069,7 @@
         <v>-5.1999999999999957</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>45293</v>
       </c>
@@ -6974,7 +7081,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>45289</v>
       </c>
@@ -6986,7 +7093,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>45288</v>
       </c>
@@ -6998,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>45287</v>
       </c>
@@ -7010,7 +7117,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>45286</v>
       </c>
@@ -7022,7 +7129,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>45282</v>
       </c>
@@ -7034,7 +7141,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>45281</v>
       </c>
@@ -7046,7 +7153,7 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>45280</v>
       </c>
@@ -7058,7 +7165,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>45279</v>
       </c>
@@ -7070,7 +7177,7 @@
         <v>8.3999999999999915</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>45278</v>
       </c>
@@ -7082,7 +7189,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>45275</v>
       </c>
@@ -7094,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>45274</v>
       </c>
@@ -7106,7 +7213,7 @@
         <v>6.8000000000000043</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>45273</v>
       </c>
@@ -7118,7 +7225,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>45272</v>
       </c>
@@ -7130,7 +7237,7 @@
         <v>-1.1999999999999957</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>45271</v>
       </c>
@@ -7142,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>45268</v>
       </c>
@@ -7154,7 +7261,7 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>45267</v>
       </c>
@@ -7166,7 +7273,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>45266</v>
       </c>
@@ -7178,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>45265</v>
       </c>
@@ -7190,7 +7297,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>45264</v>
       </c>
@@ -7202,7 +7309,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>45261</v>
       </c>
@@ -7214,7 +7321,7 @@
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>45260</v>
       </c>
@@ -7226,7 +7333,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>45259</v>
       </c>
@@ -7238,7 +7345,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>45258</v>
       </c>
@@ -7250,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>45257</v>
       </c>
@@ -7262,7 +7369,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>45254</v>
       </c>
@@ -7274,7 +7381,7 @@
         <v>3.1999999999999957</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>45252</v>
       </c>
@@ -7286,7 +7393,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>45251</v>
       </c>
@@ -7298,7 +7405,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>45250</v>
       </c>
@@ -7310,7 +7417,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>45247</v>
       </c>
@@ -7322,7 +7429,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>45246</v>
       </c>
@@ -7334,7 +7441,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>45245</v>
       </c>
@@ -7346,7 +7453,7 @@
         <v>4.7999999999999972</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>45244</v>
       </c>
@@ -7358,7 +7465,7 @@
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>45243</v>
       </c>
@@ -7370,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>45240</v>
       </c>
@@ -7382,7 +7489,7 @@
         <v>0.80000000000000426</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>45239</v>
       </c>
@@ -7394,7 +7501,7 @@
         <v>-9.2000000000000028</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>45238</v>
       </c>
@@ -7406,7 +7513,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>45237</v>
       </c>
@@ -7418,7 +7525,7 @@
         <v>0.80000000000000426</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>45236</v>
       </c>
@@ -7430,7 +7537,7 @@
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>45233</v>
       </c>
@@ -7442,7 +7549,7 @@
         <v>3.9999999999999929</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>45232</v>
       </c>
@@ -7454,7 +7561,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>45231</v>
       </c>
@@ -7466,7 +7573,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>45230</v>
       </c>
@@ -7478,7 +7585,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>45229</v>
       </c>
@@ -7490,7 +7597,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>45226</v>
       </c>
@@ -7502,7 +7609,7 @@
         <v>-4.3999999999999986</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>45225</v>
       </c>
@@ -7514,7 +7621,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>45224</v>
       </c>
@@ -7526,7 +7633,7 @@
         <v>-5.1999999999999957</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>45223</v>
       </c>
@@ -7538,7 +7645,7 @@
         <v>3.1999999999999957</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>45222</v>
       </c>
@@ -7550,7 +7657,7 @@
         <v>-3.1999999999999957</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>45219</v>
       </c>
@@ -7562,7 +7669,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>45218</v>
       </c>
@@ -7574,7 +7681,7 @@
         <v>-3.6000000000000014</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>45217</v>
       </c>
@@ -7586,7 +7693,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="315" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>45216</v>
       </c>
@@ -7598,7 +7705,7 @@
         <v>2.3999999999999915</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>45215</v>
       </c>
@@ -7610,7 +7717,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>45212</v>
       </c>
@@ -7622,7 +7729,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="318" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>45211</v>
       </c>
@@ -7634,7 +7741,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>45210</v>
       </c>
@@ -7646,7 +7753,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>45209</v>
       </c>
@@ -7658,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>45208</v>
       </c>
@@ -7670,7 +7777,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>45205</v>
       </c>
@@ -7682,7 +7789,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>45204</v>
       </c>
@@ -7694,7 +7801,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>45203</v>
       </c>
@@ -7706,7 +7813,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>45202</v>
       </c>
@@ -7718,7 +7825,7 @@
         <v>-4.4000000000000057</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>45201</v>
       </c>
@@ -7730,7 +7837,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>45198</v>
       </c>
@@ -7742,7 +7849,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>45197</v>
       </c>
@@ -7754,7 +7861,7 @@
         <v>-2.4000000000000057</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>45196</v>
       </c>
@@ -7766,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>45195</v>
       </c>
@@ -7778,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>45194</v>
       </c>
@@ -7790,7 +7897,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>45191</v>
       </c>
@@ -7802,7 +7909,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>45190</v>
       </c>
@@ -7814,7 +7921,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>45189</v>
       </c>
@@ -7826,7 +7933,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>45188</v>
       </c>
@@ -7838,7 +7945,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>45187</v>
       </c>
@@ -7850,7 +7957,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>45184</v>
       </c>
@@ -7862,7 +7969,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>45183</v>
       </c>
@@ -7874,7 +7981,7 @@
         <v>-2.3999999999999915</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>45182</v>
       </c>
@@ -7886,7 +7993,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>45181</v>
       </c>
@@ -7898,7 +8005,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>45180</v>
       </c>
@@ -7910,7 +8017,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>45177</v>
       </c>
@@ -7922,7 +8029,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>45176</v>
       </c>
@@ -7934,7 +8041,7 @@
         <v>-5.1999999999999886</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>45175</v>
       </c>
@@ -7946,7 +8053,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>45174</v>
       </c>
@@ -7958,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>45170</v>
       </c>
@@ -7970,7 +8077,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>45169</v>
       </c>
@@ -7982,7 +8089,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>45168</v>
       </c>
@@ -7994,7 +8101,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>45167</v>
       </c>
@@ -8006,7 +8113,7 @@
         <v>17.200000000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>45166</v>
       </c>
@@ -8018,7 +8125,7 @@
         <v>4.3999999999999915</v>
       </c>
     </row>
-    <row r="351" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>45163</v>
       </c>
@@ -8030,7 +8137,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>45162</v>
       </c>
@@ -8042,7 +8149,7 @@
         <v>-5.1999999999999886</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>45161</v>
       </c>
@@ -8054,7 +8161,7 @@
         <v>5.1999999999999886</v>
       </c>
     </row>
-    <row r="354" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>45160</v>
       </c>
@@ -8066,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>45159</v>
       </c>
@@ -8078,7 +8185,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="356" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>45156</v>
       </c>
@@ -8090,7 +8197,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>45155</v>
       </c>
@@ -8102,7 +8209,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="358" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>45154</v>
       </c>
@@ -8114,7 +8221,7 @@
         <v>-5.5999999999999943</v>
       </c>
     </row>
-    <row r="359" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>45153</v>
       </c>
@@ -8126,7 +8233,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>45152</v>
       </c>
@@ -8138,7 +8245,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>45149</v>
       </c>
@@ -8150,7 +8257,7 @@
         <v>4.7999999999999972</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>45148</v>
       </c>
@@ -8162,7 +8269,7 @@
         <v>-10.400000000000006</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>45147</v>
       </c>
@@ -8174,7 +8281,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="364" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>45146</v>
       </c>
@@ -8186,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>45145</v>
       </c>
@@ -8198,7 +8305,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="366" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>45142</v>
       </c>
@@ -8210,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>45141</v>
       </c>
@@ -8222,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>45140</v>
       </c>
@@ -8234,7 +8341,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>45139</v>
       </c>
@@ -8246,7 +8353,7 @@
         <v>-6.8000000000000114</v>
       </c>
     </row>
-    <row r="370" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>45138</v>
       </c>
@@ -8258,7 +8365,7 @@
         <v>2.8000000000000114</v>
       </c>
     </row>
-    <row r="371" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>45135</v>
       </c>
@@ -8270,7 +8377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>45134</v>
       </c>
@@ -8282,7 +8389,7 @@
         <v>-8.4000000000000057</v>
       </c>
     </row>
-    <row r="373" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>45133</v>
       </c>
@@ -8294,7 +8401,7 @@
         <v>4.7999999999999972</v>
       </c>
     </row>
-    <row r="374" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>45132</v>
       </c>
@@ -8306,7 +8413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>45131</v>
       </c>
@@ -8318,7 +8425,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>45128</v>
       </c>
@@ -8330,7 +8437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>45127</v>
       </c>
@@ -8342,7 +8449,7 @@
         <v>-10.399999999999991</v>
       </c>
     </row>
-    <row r="378" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>45126</v>
       </c>
@@ -8354,7 +8461,7 @@
         <v>7.5999999999999943</v>
       </c>
     </row>
-    <row r="379" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>45125</v>
       </c>
@@ -8366,7 +8473,7 @@
         <v>6.7999999999999972</v>
       </c>
     </row>
-    <row r="380" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>45124</v>
       </c>
@@ -8378,7 +8485,7 @@
         <v>5.6000000000000085</v>
       </c>
     </row>
-    <row r="381" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>45121</v>
       </c>
@@ -8390,7 +8497,7 @@
         <v>-4.8000000000000114</v>
       </c>
     </row>
-    <row r="382" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>45120</v>
       </c>
@@ -8402,7 +8509,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>45119</v>
       </c>
@@ -8414,7 +8521,7 @@
         <v>4.3999999999999915</v>
       </c>
     </row>
-    <row r="384" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>45118</v>
       </c>
@@ -8426,7 +8533,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>45117</v>
       </c>
@@ -8438,7 +8545,7 @@
         <v>8.4000000000000057</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>45114</v>
       </c>
@@ -8450,7 +8557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>45113</v>
       </c>
@@ -8462,7 +8569,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>45112</v>
       </c>
@@ -8474,7 +8581,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>45110</v>
       </c>
@@ -8486,7 +8593,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>45107</v>
       </c>
@@ -8498,7 +8605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>45106</v>
       </c>
@@ -8510,7 +8617,7 @@
         <v>-0.39999999999999147</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>45105</v>
       </c>
@@ -8522,7 +8629,7 @@
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>45104</v>
       </c>
@@ -8534,7 +8641,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="394" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>45103</v>
       </c>
@@ -8546,7 +8653,7 @@
         <v>-4.3999999999999986</v>
       </c>
     </row>
-    <row r="395" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>45100</v>
       </c>
@@ -8558,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>45099</v>
       </c>
@@ -8570,7 +8677,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>45098</v>
       </c>
@@ -8582,7 +8689,7 @@
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>45097</v>
       </c>
@@ -8594,7 +8701,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>45093</v>
       </c>
@@ -8606,7 +8713,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>45092</v>
       </c>
@@ -8618,7 +8725,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>45091</v>
       </c>
@@ -8630,7 +8737,7 @@
         <v>-1.1999999999999886</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>45090</v>
       </c>
@@ -8642,7 +8749,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>45089</v>
       </c>
@@ -8654,7 +8761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>45086</v>
       </c>
@@ -8666,7 +8773,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>45085</v>
       </c>
@@ -8678,7 +8785,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>45084</v>
       </c>
@@ -8690,7 +8797,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>45083</v>
       </c>
@@ -8702,7 +8809,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>45082</v>
       </c>
@@ -8714,7 +8821,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>45079</v>
       </c>
@@ -8726,7 +8833,7 @@
         <v>-2.4000000000000057</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>45078</v>
       </c>
@@ -8738,7 +8845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>45077</v>
       </c>
@@ -8750,7 +8857,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="412" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>45076</v>
       </c>
@@ -8762,7 +8869,7 @@
         <v>8.4000000000000057</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>45072</v>
       </c>
@@ -8774,7 +8881,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="414" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>45071</v>
       </c>
@@ -8786,7 +8893,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>45070</v>
       </c>
@@ -8798,7 +8905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>45069</v>
       </c>
@@ -8810,7 +8917,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>45068</v>
       </c>
@@ -8822,7 +8929,7 @@
         <v>9.1999999999999957</v>
       </c>
     </row>
-    <row r="418" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>45065</v>
       </c>
@@ -8834,7 +8941,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>45064</v>
       </c>
@@ -8846,7 +8953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>45063</v>
       </c>
@@ -8858,7 +8965,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>45062</v>
       </c>
@@ -8870,7 +8977,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>45061</v>
       </c>
@@ -8882,7 +8989,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>45058</v>
       </c>
@@ -8894,7 +9001,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>45057</v>
       </c>
@@ -8906,7 +9013,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>45056</v>
       </c>
@@ -8918,7 +9025,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>45055</v>
       </c>
@@ -8930,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>45054</v>
       </c>
@@ -8942,7 +9049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>45051</v>
       </c>
@@ -8954,7 +9061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>45050</v>
       </c>
@@ -8966,7 +9073,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="430" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>45049</v>
       </c>
@@ -8978,7 +9085,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="431" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>45048</v>
       </c>
@@ -8990,7 +9097,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="432" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>45047</v>
       </c>
@@ -9002,7 +9109,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="433" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>45044</v>
       </c>
@@ -9014,7 +9121,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="434" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>45043</v>
       </c>
@@ -9026,7 +9133,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="435" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>45042</v>
       </c>
@@ -9038,7 +9145,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>45041</v>
       </c>
@@ -9050,7 +9157,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>45040</v>
       </c>
@@ -9062,7 +9169,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="438" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>45037</v>
       </c>
@@ -9074,7 +9181,7 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>45036</v>
       </c>
@@ -9086,7 +9193,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="440" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>45035</v>
       </c>
@@ -9098,7 +9205,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>45034</v>
       </c>
@@ -9110,7 +9217,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>45033</v>
       </c>
@@ -9122,7 +9229,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>45030</v>
       </c>
@@ -9134,7 +9241,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>45029</v>
       </c>
@@ -9146,7 +9253,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>45028</v>
       </c>
@@ -9158,7 +9265,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>45027</v>
       </c>
@@ -9170,7 +9277,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>45026</v>
       </c>
@@ -9182,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>45022</v>
       </c>
@@ -9194,7 +9301,7 @@
         <v>4.7999999999999972</v>
       </c>
     </row>
-    <row r="449" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>45021</v>
       </c>
@@ -9206,7 +9313,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>45020</v>
       </c>
@@ -9218,7 +9325,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>45019</v>
       </c>
@@ -9230,7 +9337,7 @@
         <v>-2.4000000000000057</v>
       </c>
     </row>
-    <row r="452" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>45016</v>
       </c>
@@ -9242,7 +9349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>45015</v>
       </c>
@@ -9254,7 +9361,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="454" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>45014</v>
       </c>
@@ -9266,7 +9373,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>45013</v>
       </c>
@@ -9278,7 +9385,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="456" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>45012</v>
       </c>
@@ -9290,7 +9397,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="457" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>45009</v>
       </c>
@@ -9302,7 +9409,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="458" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>45008</v>
       </c>
@@ -9314,7 +9421,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>45007</v>
       </c>
@@ -9326,7 +9433,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="460" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>45006</v>
       </c>
@@ -9338,7 +9445,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="461" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>45005</v>
       </c>
@@ -9350,7 +9457,7 @@
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="462" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>45002</v>
       </c>
@@ -9362,7 +9469,7 @@
         <v>-1.5999999999999943</v>
       </c>
     </row>
-    <row r="463" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>45001</v>
       </c>
@@ -9374,7 +9481,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="464" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>45000</v>
       </c>
@@ -9386,7 +9493,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="465" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>44999</v>
       </c>
@@ -9398,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>44998</v>
       </c>
@@ -9410,7 +9517,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="467" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>44995</v>
       </c>
@@ -9422,7 +9529,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>44994</v>
       </c>
@@ -9434,7 +9541,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>44993</v>
       </c>
@@ -9446,7 +9553,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="470" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>44992</v>
       </c>
@@ -9458,7 +9565,7 @@
         <v>-2.3999999999999986</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>44991</v>
       </c>
@@ -9470,7 +9577,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="472" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>44988</v>
       </c>
@@ -9482,7 +9589,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="473" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>44987</v>
       </c>
@@ -9494,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>44986</v>
       </c>
@@ -9506,7 +9613,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>44985</v>
       </c>
@@ -9518,7 +9625,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="476" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>44984</v>
       </c>
@@ -9530,7 +9637,7 @@
         <v>-0.39999999999999858</v>
       </c>
     </row>
-    <row r="477" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>44981</v>
       </c>
@@ -9542,7 +9649,7 @@
         <v>-5.6000000000000085</v>
       </c>
     </row>
-    <row r="478" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>44980</v>
       </c>
@@ -9554,7 +9661,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="479" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>44979</v>
       </c>
@@ -9566,7 +9673,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="480" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>44978</v>
       </c>
@@ -9578,7 +9685,7 @@
         <v>-5.5999999999999943</v>
       </c>
     </row>
-    <row r="481" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>44974</v>
       </c>
@@ -9590,7 +9697,7 @@
         <v>-0.80000000000001137</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>44973</v>
       </c>
@@ -9602,7 +9709,7 @@
         <v>-2.3999999999999915</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>44972</v>
       </c>
@@ -9614,7 +9721,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>44971</v>
       </c>
@@ -9626,7 +9733,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="485" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>44970</v>
       </c>
@@ -9638,7 +9745,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="486" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>44967</v>
       </c>
@@ -9650,7 +9757,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="487" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>44966</v>
       </c>
@@ -9662,7 +9769,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="488" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>44965</v>
       </c>
@@ -9674,7 +9781,7 @@
         <v>-6.7999999999999972</v>
       </c>
     </row>
-    <row r="489" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>44964</v>
       </c>
@@ -9686,7 +9793,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="490" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>44963</v>
       </c>
@@ -9698,7 +9805,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="491" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>44960</v>
       </c>
@@ -9710,7 +9817,7 @@
         <v>-5.1999999999999886</v>
       </c>
     </row>
-    <row r="492" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>44959</v>
       </c>
@@ -9722,7 +9829,7 @@
         <v>7.5999999999999943</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>44958</v>
       </c>
@@ -9734,7 +9841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>44957</v>
       </c>
@@ -9746,7 +9853,7 @@
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>44956</v>
       </c>
@@ -9758,7 +9865,7 @@
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>44953</v>
       </c>
@@ -9770,7 +9877,7 @@
         <v>7.5999999999999943</v>
       </c>
     </row>
-    <row r="497" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>44952</v>
       </c>
@@ -9782,7 +9889,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>44951</v>
       </c>
@@ -9794,7 +9901,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="499" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>44950</v>
       </c>
@@ -9806,7 +9913,7 @@
         <v>-1.1999999999999886</v>
       </c>
     </row>
-    <row r="500" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>44949</v>
       </c>
@@ -9818,7 +9925,7 @@
         <v>7.1999999999999886</v>
       </c>
     </row>
-    <row r="501" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>44946</v>
       </c>
@@ -9830,7 +9937,7 @@
         <v>-0.39999999999999147</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>44945</v>
       </c>
@@ -9842,7 +9949,7 @@
         <v>-6.4000000000000057</v>
       </c>
     </row>
-    <row r="503" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>44944</v>
       </c>
@@ -9854,7 +9961,7 @@
         <v>-6.3999999999999915</v>
       </c>
     </row>
-    <row r="504" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>44943</v>
       </c>
@@ -9866,7 +9973,7 @@
         <v>5.1999999999999886</v>
       </c>
     </row>
-    <row r="505" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>44939</v>
       </c>
@@ -9878,7 +9985,7 @@
         <v>0.80000000000001137</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>44938</v>
       </c>
@@ -9890,7 +9997,7 @@
         <v>5.5999999999999943</v>
       </c>
     </row>
-    <row r="507" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>44937</v>
       </c>
@@ -9902,7 +10009,7 @@
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="508" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>44936</v>
       </c>
@@ -9914,7 +10021,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>44935</v>
       </c>
@@ -9926,7 +10033,7 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="510" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>44932</v>
       </c>
@@ -9938,7 +10045,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="511" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>44931</v>
       </c>
@@ -9950,7 +10057,7 @@
         <v>-0.80000000000000426</v>
       </c>
     </row>
-    <row r="512" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>44930</v>
       </c>
@@ -9962,7 +10069,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="513" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>44929</v>
       </c>
@@ -9974,7 +10081,7 @@
         <v>-4.3999999999999915</v>
       </c>
     </row>
-    <row r="514" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>44925</v>
       </c>
@@ -9986,7 +10093,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="515" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>44924</v>
       </c>
@@ -9998,7 +10105,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="516" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>44923</v>
       </c>
@@ -10010,7 +10117,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="517" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>44922</v>
       </c>
@@ -10022,7 +10129,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="518" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>44918</v>
       </c>
@@ -10034,7 +10141,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="519" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>44917</v>
       </c>
@@ -10046,7 +10153,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="520" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A520" s="24">
         <v>44916</v>
       </c>
@@ -10058,7 +10165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A521" s="24">
         <v>44915</v>
       </c>
@@ -10070,7 +10177,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="522" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A522" s="24">
         <v>44914</v>
       </c>
@@ -10082,7 +10189,7 @@
         <v>-1.2000000000000028</v>
       </c>
     </row>
-    <row r="523" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A523" s="24">
         <v>44911</v>
       </c>
@@ -10094,7 +10201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A524" s="24">
         <v>44910</v>
       </c>
@@ -10106,7 +10213,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="525" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A525" s="24">
         <v>44909</v>
       </c>
@@ -10118,7 +10225,7 @@
         <v>-2.3999999999999915</v>
       </c>
     </row>
-    <row r="526" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A526" s="24">
         <v>44908</v>
       </c>
@@ -10130,7 +10237,7 @@
         <v>-5.6000000000000085</v>
       </c>
     </row>
-    <row r="527" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A527" s="24">
         <v>44907</v>
       </c>
@@ -10142,7 +10249,7 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="528" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A528" s="24">
         <v>44904</v>
       </c>
@@ -10154,7 +10261,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A529" s="24">
         <v>44903</v>
       </c>
@@ -10166,7 +10273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A530" s="24">
         <v>44902</v>
       </c>
@@ -10178,7 +10285,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="531" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A531" s="24">
         <v>44901</v>
       </c>
@@ -10190,7 +10297,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="532" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A532" s="24">
         <v>44900</v>
       </c>
@@ -10202,7 +10309,7 @@
         <v>-7.5999999999999943</v>
       </c>
     </row>
-    <row r="533" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A533" s="24">
         <v>44897</v>
       </c>
@@ -10214,7 +10321,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="534" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A534" s="24">
         <v>44896</v>
       </c>
@@ -10226,7 +10333,7 @@
         <v>-0.39999999999999147</v>
       </c>
     </row>
-    <row r="535" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A535" s="24">
         <v>44895</v>
       </c>
@@ -10238,7 +10345,7 @@
         <v>5.5999999999999943</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A536" s="24">
         <v>44894</v>
       </c>
@@ -10250,7 +10357,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="537" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A537" s="24">
         <v>44893</v>
       </c>
@@ -10262,7 +10369,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="538" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A538" s="24">
         <v>44890</v>
       </c>
@@ -10274,7 +10381,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="539" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A539" s="24">
         <v>44888</v>
       </c>
@@ -10286,7 +10393,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="540" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A540" s="24">
         <v>44887</v>
       </c>
@@ -10298,7 +10405,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="541" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A541" s="24">
         <v>44886</v>
       </c>
@@ -10310,7 +10417,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="542" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A542" s="24">
         <v>44883</v>
       </c>
@@ -10322,7 +10429,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="543" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A543" s="24">
         <v>44882</v>
       </c>
@@ -10334,7 +10441,7 @@
         <v>-6.7999999999999972</v>
       </c>
     </row>
-    <row r="544" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A544" s="24">
         <v>44881</v>
       </c>
@@ -10346,7 +10453,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="545" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A545" s="24">
         <v>44880</v>
       </c>
@@ -10358,7 +10465,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="546" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A546" s="24">
         <v>44879</v>
       </c>
@@ -10370,7 +10477,7 @@
         <v>-6.7999999999999972</v>
       </c>
     </row>
-    <row r="547" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A547" s="24">
         <v>44876</v>
       </c>
@@ -10382,7 +10489,7 @@
         <v>8.4000000000000057</v>
       </c>
     </row>
-    <row r="548" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A548" s="24">
         <v>44875</v>
       </c>
@@ -10394,7 +10501,7 @@
         <v>13.599999999999994</v>
       </c>
     </row>
-    <row r="549" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A549" s="24">
         <v>44874</v>
       </c>
@@ -10406,7 +10513,7 @@
         <v>-9.5999999999999943</v>
       </c>
     </row>
-    <row r="550" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A550" s="24">
         <v>44873</v>
       </c>
@@ -10418,7 +10525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A551" s="24">
         <v>44872</v>
       </c>
@@ -10430,7 +10537,7 @@
         <v>-4.4000000000000057</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A552" s="24">
         <v>44869</v>
       </c>
@@ -10442,7 +10549,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="553" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A553" s="24">
         <v>44868</v>
       </c>
@@ -10454,7 +10561,7 @@
         <v>-2.3999999999999915</v>
       </c>
     </row>
-    <row r="554" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A554" s="24">
         <v>44867</v>
       </c>
@@ -10466,7 +10573,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="555" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A555" s="24">
         <v>44866</v>
       </c>
@@ -10478,7 +10585,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="556" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A556" s="24">
         <v>44865</v>
       </c>
@@ -10490,7 +10597,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="557" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A557" s="24">
         <v>44862</v>
       </c>
@@ -10502,7 +10609,7 @@
         <v>2.3999999999999915</v>
       </c>
     </row>
-    <row r="558" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A558" s="24">
         <v>44861</v>
       </c>
@@ -10514,7 +10621,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="559" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A559" s="24">
         <v>44860</v>
       </c>
@@ -10526,7 +10633,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="560" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A560" s="24">
         <v>44859</v>
       </c>
@@ -10538,7 +10645,7 @@
         <v>10.800000000000011</v>
       </c>
     </row>
-    <row r="561" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A561" s="24">
         <v>44858</v>
       </c>
@@ -10550,7 +10657,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="562" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A562" s="24">
         <v>44855</v>
       </c>
@@ -10562,7 +10669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A563" s="24">
         <v>44854</v>
       </c>
@@ -10574,7 +10681,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="564" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A564" s="24">
         <v>44853</v>
       </c>
@@ -10586,7 +10693,7 @@
         <v>-8.8000000000000114</v>
       </c>
     </row>
-    <row r="565" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A565" s="24">
         <v>44852</v>
       </c>
@@ -10598,7 +10705,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="566" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A566" s="24">
         <v>44851</v>
       </c>
@@ -10610,7 +10717,7 @@
         <v>1.6000000000000085</v>
       </c>
     </row>
-    <row r="567" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A567" s="24">
         <v>44848</v>
       </c>
@@ -10622,7 +10729,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="568" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A568" s="24">
         <v>44847</v>
       </c>
@@ -10634,7 +10741,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="569" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A569" s="24">
         <v>44846</v>
       </c>
@@ -10646,7 +10753,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="570" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A570" s="24">
         <v>44845</v>
       </c>
@@ -10658,7 +10765,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="571" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A571" s="24">
         <v>44844</v>
       </c>
@@ -10670,7 +10777,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="572" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A572" s="24">
         <v>44841</v>
       </c>
@@ -10682,7 +10789,7 @@
         <v>-5.5999999999999943</v>
       </c>
     </row>
-    <row r="573" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A573" s="24">
         <v>44840</v>
       </c>
@@ -10694,7 +10801,7 @@
         <v>-3.2000000000000171</v>
       </c>
     </row>
-    <row r="574" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A574" s="24">
         <v>44839</v>
       </c>
@@ -10706,7 +10813,7 @@
         <v>-8.4000000000000057</v>
       </c>
     </row>
-    <row r="575" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A575" s="24">
         <v>44838</v>
       </c>
@@ -10718,7 +10825,7 @@
         <v>15.200000000000017</v>
       </c>
     </row>
-    <row r="576" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A576" s="24">
         <v>44837</v>
       </c>
@@ -10730,7 +10837,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="577" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A577" s="24">
         <v>44834</v>
       </c>
@@ -10742,7 +10849,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="578" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A578" s="24">
         <v>44833</v>
       </c>
@@ -10754,7 +10861,7 @@
         <v>-13.600000000000009</v>
       </c>
     </row>
-    <row r="579" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A579" s="24">
         <v>44832</v>
       </c>
@@ -10766,7 +10873,7 @@
         <v>23.200000000000017</v>
       </c>
     </row>
-    <row r="580" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A580" s="24">
         <v>44831</v>
       </c>
@@ -10778,7 +10885,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="581" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A581" s="24">
         <v>44830</v>
       </c>
@@ -10790,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A582" s="24">
         <v>44827</v>
       </c>
@@ -10802,7 +10909,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="583" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A583" s="24">
         <v>44826</v>
       </c>
@@ -10814,7 +10921,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="584" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A584" s="24">
         <v>44825</v>
       </c>
@@ -10826,7 +10933,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="585" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A585" s="24">
         <v>44824</v>
       </c>
@@ -10838,7 +10945,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A586" s="24">
         <v>44823</v>
       </c>
@@ -10850,7 +10957,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="587" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A587" s="24">
         <v>44820</v>
       </c>
@@ -10862,7 +10969,7 @@
         <v>-5.6000000000000085</v>
       </c>
     </row>
-    <row r="588" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A588" s="24">
         <v>44819</v>
       </c>
@@ -10874,7 +10981,7 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="589" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A589" s="24">
         <v>44818</v>
       </c>
@@ -10886,7 +10993,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="590" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A590" s="24">
         <v>44817</v>
       </c>
@@ -10898,7 +11005,7 @@
         <v>-7.2000000000000028</v>
       </c>
     </row>
-    <row r="591" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A591" s="24">
         <v>44816</v>
       </c>
@@ -10910,7 +11017,7 @@
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="592" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A592" s="24">
         <v>44813</v>
       </c>
@@ -10922,7 +11029,7 @@
         <v>2.3999999999999915</v>
       </c>
     </row>
-    <row r="593" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A593" s="24">
         <v>44812</v>
       </c>
@@ -10934,7 +11041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A594" s="24">
         <v>44811</v>
       </c>
@@ -10946,7 +11053,7 @@
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="595" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A595" s="24">
         <v>44810</v>
       </c>
@@ -10958,7 +11065,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="596" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A596" s="24">
         <v>44806</v>
       </c>
@@ -10970,7 +11077,7 @@
         <v>-9.1999999999999886</v>
       </c>
     </row>
-    <row r="597" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A597" s="24">
         <v>44805</v>
       </c>
@@ -10982,7 +11089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A598" s="24">
         <v>44804</v>
       </c>
@@ -10994,7 +11101,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="599" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A599" s="24">
         <v>44803</v>
       </c>
@@ -11006,7 +11113,7 @@
         <v>-2.7999999999999972</v>
       </c>
     </row>
-    <row r="600" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A600" s="24">
         <v>44802</v>
       </c>
@@ -11018,7 +11125,7 @@
         <v>-4.4000000000000057</v>
       </c>
     </row>
-    <row r="601" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A601" s="24">
         <v>44799</v>
       </c>
@@ -11030,7 +11137,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="602" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A602" s="24">
         <v>44798</v>
       </c>
@@ -11042,7 +11149,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="603" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A603" s="24">
         <v>44797</v>
       </c>
@@ -11054,7 +11161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A604" s="24">
         <v>44796</v>
       </c>
@@ -11066,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A605" s="24">
         <v>44795</v>
       </c>
@@ -11078,7 +11185,7 @@
         <v>-6.4000000000000057</v>
       </c>
     </row>
-    <row r="606" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A606" s="24">
         <v>44792</v>
       </c>
@@ -11090,7 +11197,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="607" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A607" s="24">
         <v>44791</v>
       </c>
@@ -11102,7 +11209,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="608" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A608" s="24">
         <v>44790</v>
       </c>
@@ -11114,7 +11221,7 @@
         <v>-19.199999999999989</v>
       </c>
     </row>
-    <row r="609" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A609" s="24">
         <v>44789</v>
       </c>
@@ -11126,7 +11233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A610" s="24">
         <v>44788</v>
       </c>
@@ -11138,7 +11245,7 @@
         <v>-5.5999999999999943</v>
       </c>
     </row>
-    <row r="611" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A611" s="24">
         <v>44785</v>
       </c>
@@ -11150,7 +11257,7 @@
         <v>9.1999999999999886</v>
       </c>
     </row>
-    <row r="612" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A612" s="24">
         <v>44784</v>
       </c>
@@ -11162,7 +11269,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="613" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A613" s="24">
         <v>44783</v>
       </c>
@@ -11174,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A614" s="24">
         <v>44782</v>
       </c>
@@ -11186,7 +11293,7 @@
         <v>-4.3999999999999915</v>
       </c>
     </row>
-    <row r="615" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A615" s="24">
         <v>44781</v>
       </c>
@@ -11198,7 +11305,7 @@
         <v>6.7999999999999972</v>
       </c>
     </row>
-    <row r="616" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A616" s="24">
         <v>44778</v>
       </c>
@@ -11210,7 +11317,7 @@
         <v>2.3999999999999915</v>
       </c>
     </row>
-    <row r="617" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A617" s="24">
         <v>44777</v>
       </c>
@@ -11222,7 +11329,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="618" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A618" s="24">
         <v>44776</v>
       </c>
@@ -11234,7 +11341,7 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="619" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A619" s="24">
         <v>44775</v>
       </c>
@@ -11246,7 +11353,7 @@
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="620" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A620" s="24">
         <v>44774</v>
       </c>
@@ -11258,7 +11365,7 @@
         <v>0.39999999999999147</v>
       </c>
     </row>
-    <row r="621" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A621" s="24">
         <v>44771</v>
       </c>
@@ -11270,7 +11377,7 @@
         <v>0.80000000000001137</v>
       </c>
     </row>
-    <row r="622" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A622" s="24">
         <v>44770</v>
       </c>
@@ -11282,7 +11389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A623" s="24">
         <v>44769</v>
       </c>
@@ -11294,7 +11401,7 @@
         <v>7.1999999999999886</v>
       </c>
     </row>
-    <row r="624" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A624" s="24">
         <v>44768</v>
       </c>
@@ -11306,7 +11413,7 @@
         <v>-6.7999999999999972</v>
       </c>
     </row>
-    <row r="625" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A625" s="24">
         <v>44767</v>
       </c>
@@ -11318,7 +11425,7 @@
         <v>-5.5999999999999943</v>
       </c>
     </row>
-    <row r="626" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A626" s="24">
         <v>44764</v>
       </c>
@@ -11330,7 +11437,7 @@
         <v>-11.200000000000003</v>
       </c>
     </row>
-    <row r="627" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A627" s="24">
         <v>44763</v>
       </c>
@@ -11342,7 +11449,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="628" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A628" s="24">
         <v>44762</v>
       </c>
@@ -11354,7 +11461,7 @@
         <v>-2.4000000000000057</v>
       </c>
     </row>
-    <row r="629" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A629" s="24">
         <v>44761</v>
       </c>
@@ -11366,7 +11473,7 @@
         <v>9.6000000000000085</v>
       </c>
     </row>
-    <row r="630" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A630" s="24">
         <v>44760</v>
       </c>
@@ -11378,7 +11485,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="631" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A631" s="24">
         <v>44757</v>
       </c>
@@ -11390,7 +11497,7 @@
         <v>-3.5999999999999943</v>
       </c>
     </row>
-    <row r="632" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A632" s="24">
         <v>44756</v>
       </c>
@@ -11402,7 +11509,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="633" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A633" s="24">
         <v>44755</v>
       </c>
@@ -11414,7 +11521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A634" s="24">
         <v>44754</v>
       </c>
@@ -11426,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A635" s="24">
         <v>44753</v>
       </c>
@@ -11438,7 +11545,7 @@
         <v>-9.5999999999999943</v>
       </c>
     </row>
-    <row r="636" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A636" s="24">
         <v>44750</v>
       </c>
@@ -11450,7 +11557,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="637" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A637" s="24">
         <v>44749</v>
       </c>
@@ -11462,7 +11569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A638" s="24">
         <v>44748</v>
       </c>
@@ -11474,7 +11581,7 @@
         <v>11.599999999999994</v>
       </c>
     </row>
-    <row r="639" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A639" s="24">
         <v>44747</v>
       </c>
@@ -11486,7 +11593,7 @@
         <v>12.799999999999997</v>
       </c>
     </row>
-    <row r="640" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A640" s="24">
         <v>44743</v>
       </c>
@@ -11498,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A641" s="24">
         <v>44742</v>
       </c>
@@ -11510,7 +11617,7 @@
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="642" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A642" s="24">
         <v>44741</v>
       </c>
@@ -11522,7 +11629,7 @@
         <v>-4.4000000000000057</v>
       </c>
     </row>
-    <row r="643" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A643" s="24">
         <v>44740</v>
       </c>
@@ -11534,7 +11641,7 @@
         <v>-7.1999999999999886</v>
       </c>
     </row>
-    <row r="644" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A644" s="24">
         <v>44739</v>
       </c>
@@ -11546,7 +11653,7 @@
         <v>-2.8000000000000114</v>
       </c>
     </row>
-    <row r="645" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A645" s="24">
         <v>44736</v>
       </c>
@@ -11558,7 +11665,7 @@
         <v>-3.1999999999999886</v>
       </c>
     </row>
-    <row r="646" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A646" s="24">
         <v>44735</v>
       </c>
@@ -11570,7 +11677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A647" s="24">
         <v>44734</v>
       </c>
@@ -11582,7 +11689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A648" s="24">
         <v>44733</v>
       </c>
@@ -11594,7 +11701,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="649" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A649" s="24">
         <v>44729</v>
       </c>
@@ -11606,7 +11713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A650" s="24">
         <v>44728</v>
       </c>
@@ -11618,7 +11725,7 @@
         <v>-10.799999999999997</v>
       </c>
     </row>
-    <row r="651" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A651" s="24">
         <v>44727</v>
       </c>
@@ -11630,7 +11737,7 @@
         <v>6.7999999999999972</v>
       </c>
     </row>
-    <row r="652" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A652" s="24">
         <v>44726</v>
       </c>
@@ -11642,7 +11749,7 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="653" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A653" s="24">
         <v>44725</v>
       </c>
@@ -11654,7 +11761,7 @@
         <v>-17.599999999999994</v>
       </c>
     </row>
-    <row r="654" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A654" s="24">
         <v>44722</v>
       </c>
@@ -11666,7 +11773,7 @@
         <v>-11.600000000000009</v>
       </c>
     </row>
-    <row r="655" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A655" s="24">
         <v>44721</v>
       </c>
@@ -11678,7 +11785,7 @@
         <v>-18.799999999999983</v>
       </c>
     </row>
-    <row r="656" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A656" s="24">
         <v>44720</v>
       </c>
@@ -11690,7 +11797,7 @@
         <v>-0.40000000000000568</v>
       </c>
     </row>
-    <row r="657" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A657" s="24">
         <v>44719</v>
       </c>
@@ -11702,7 +11809,7 @@
         <v>4.7999999999999829</v>
       </c>
     </row>
-    <row r="658" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A658" s="24">
         <v>44718</v>
       </c>
@@ -11714,7 +11821,7 @@
         <v>-7.5999999999999943</v>
       </c>
     </row>
-    <row r="659" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A659" s="24">
         <v>44715</v>
       </c>
@@ -11726,7 +11833,7 @@
         <v>7.2000000000000171</v>
       </c>
     </row>
-    <row r="660" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A660" s="24">
         <v>44714</v>
       </c>
@@ -11738,7 +11845,7 @@
         <v>19.999999999999986</v>
       </c>
     </row>
-    <row r="661" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A661" s="24">
         <v>44713</v>
       </c>
@@ -11750,7 +11857,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="662" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A662" s="24">
         <v>44712</v>
       </c>
@@ -11762,7 +11869,7 @@
         <v>-5.2000000000000028</v>
       </c>
     </row>
-    <row r="663" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A663" s="24">
         <v>44708</v>
       </c>
@@ -11774,7 +11881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A664" s="24">
         <v>44707</v>
       </c>
@@ -11786,7 +11893,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="665" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A665" s="24">
         <v>44706</v>
       </c>
@@ -11798,7 +11905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A666" s="24">
         <v>44705</v>
       </c>
@@ -11810,7 +11917,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="667" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A667" s="24">
         <v>44704</v>
       </c>
@@ -11822,7 +11929,7 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="668" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A668" s="24">
         <v>44701</v>
       </c>
@@ -11834,7 +11941,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="669" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A669" s="24">
         <v>44700</v>
       </c>
@@ -11846,7 +11953,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="670" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A670" s="24">
         <v>44699</v>
       </c>
@@ -11858,7 +11965,7 @@
         <v>-12.399999999999991</v>
       </c>
     </row>
-    <row r="671" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A671" s="24">
         <v>44698</v>
       </c>
@@ -11870,7 +11977,7 @@
         <v>12.399999999999991</v>
       </c>
     </row>
-    <row r="672" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A672" s="24">
         <v>44697</v>
       </c>
@@ -11882,7 +11989,7 @@
         <v>-9.2000000000000028</v>
       </c>
     </row>
-    <row r="673" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A673" s="24">
         <v>44694</v>
       </c>
@@ -11894,7 +12001,7 @@
         <v>11.200000000000003</v>
       </c>
     </row>
-    <row r="674" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A674" s="24">
         <v>44693</v>
       </c>
@@ -11906,7 +12013,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="675" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A675" s="24">
         <v>44692</v>
       </c>
@@ -11918,7 +12025,7 @@
         <v>-8.4000000000000057</v>
       </c>
     </row>
-    <row r="676" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A676" s="24">
         <v>44691</v>
       </c>
@@ -11930,7 +12037,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="677" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A677" s="24">
         <v>44690</v>
       </c>
@@ -11942,7 +12049,7 @@
         <v>-13.200000000000003</v>
       </c>
     </row>
-    <row r="678" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A678" s="24">
         <v>44687</v>
       </c>
@@ -11954,7 +12061,7 @@
         <v>-8.7999999999999972</v>
       </c>
     </row>
-    <row r="679" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A679" s="24">
         <v>44686</v>
       </c>
@@ -11966,7 +12073,7 @@
         <v>-14.399999999999991</v>
       </c>
     </row>
-    <row r="680" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A680" s="24">
         <v>44685</v>
       </c>
@@ -11978,7 +12085,7 @@
         <v>2.7999999999999829</v>
       </c>
     </row>
-    <row r="681" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A681" s="24">
         <v>44684</v>
       </c>
@@ -11990,7 +12097,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="682" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A682" s="24">
         <v>44683</v>
       </c>
@@ -12002,7 +12109,7 @@
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="683" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A683" s="24">
         <v>44680</v>
       </c>
@@ -12014,7 +12121,7 @@
         <v>-8.7999999999999972</v>
       </c>
     </row>
-    <row r="684" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A684" s="24">
         <v>44679</v>
       </c>
@@ -12026,7 +12133,7 @@
         <v>-12.399999999999991</v>
       </c>
     </row>
-    <row r="685" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A685" s="24">
         <v>44678</v>
       </c>
@@ -12038,7 +12145,7 @@
         <v>-10.400000000000006</v>
       </c>
     </row>
-    <row r="686" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A686" s="24">
         <v>44677</v>
       </c>
@@ -12050,7 +12157,7 @@
         <v>-7.5999999999999943</v>
       </c>
     </row>
-    <row r="687" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A687" s="24">
         <v>44676</v>
       </c>
@@ -12062,7 +12169,7 @@
         <v>19.199999999999989</v>
       </c>
     </row>
-    <row r="688" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A688" s="24">
         <v>44673</v>
       </c>
@@ -12074,7 +12181,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="689" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A689" s="24">
         <v>44672</v>
       </c>
@@ -12086,7 +12193,7 @@
         <v>-7.5999999999999943</v>
       </c>
     </row>
-    <row r="690" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A690" s="24">
         <v>44671</v>
       </c>
@@ -12098,7 +12205,7 @@
         <v>-7.2000000000000171</v>
       </c>
     </row>
-    <row r="691" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A691" s="24">
         <v>44670</v>
       </c>
@@ -12110,7 +12217,7 @@
         <v>7.6000000000000227</v>
       </c>
     </row>
-    <row r="692" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A692" s="24">
         <v>44669</v>
       </c>
@@ -12122,7 +12229,7 @@
         <v>-8.4000000000000057</v>
       </c>
     </row>
-    <row r="693" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A693" s="24">
         <v>44665</v>
       </c>
@@ -12134,7 +12241,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="694" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A694" s="24">
         <v>44664</v>
       </c>
@@ -12146,7 +12253,7 @@
         <v>15.199999999999989</v>
       </c>
     </row>
-    <row r="695" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A695" s="24">
         <v>44663</v>
       </c>
@@ -12158,7 +12265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="696" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A696" s="24">
         <v>44662</v>
       </c>
@@ -12170,7 +12277,7 @@
         <v>-7.1999999999999886</v>
       </c>
     </row>
-    <row r="697" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A697" s="24">
         <v>44659</v>
       </c>
@@ -12182,7 +12289,7 @@
         <v>4.7999999999999829</v>
       </c>
     </row>
-    <row r="698" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A698" s="24">
         <v>44658</v>
       </c>
@@ -12194,7 +12301,7 @@
         <v>-4.7999999999999829</v>
       </c>
     </row>
-    <row r="699" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A699" s="24">
         <v>44657</v>
       </c>
@@ -12206,7 +12313,7 @@
         <v>-3.2000000000000171</v>
       </c>
     </row>
-    <row r="700" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A700" s="24">
         <v>44656</v>
       </c>
@@ -12218,7 +12325,7 @@
         <v>-20.799999999999983</v>
       </c>
     </row>
-    <row r="701" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A701" s="24">
         <v>44655</v>
       </c>
@@ -12230,7 +12337,7 @@
         <v>-2.8000000000000114</v>
       </c>
     </row>
-    <row r="702" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A702" s="24">
         <v>44652</v>
       </c>
@@ -12242,7 +12349,7 @@
         <v>6.8000000000000114</v>
       </c>
     </row>
-    <row r="703" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A703" s="24">
         <v>44651</v>
       </c>
@@ -12254,7 +12361,7 @@
         <v>-7.6000000000000227</v>
       </c>
     </row>
-    <row r="704" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A704" s="24">
         <v>44650</v>
       </c>
@@ -12266,7 +12373,7 @@
         <v>-14.799999999999983</v>
       </c>
     </row>
-    <row r="705" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A705" s="24">
         <v>44649</v>
       </c>
@@ -12278,7 +12385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A706" s="24">
         <v>44648</v>
       </c>
@@ -12290,7 +12397,7 @@
         <v>3.1999999999999886</v>
       </c>
     </row>
-    <row r="707" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A707" s="24">
         <v>44645</v>
       </c>
@@ -12302,7 +12409,7 @@
         <v>-2.4000000000000057</v>
       </c>
     </row>
-    <row r="708" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A708" s="24">
         <v>44644</v>
       </c>
@@ -12314,7 +12421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A709" s="24">
         <v>44643</v>
       </c>
@@ -12326,7 +12433,7 @@
         <v>13.200000000000017</v>
       </c>
     </row>
-    <row r="710" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A710" s="24">
         <v>44642</v>
       </c>
@@ -12338,7 +12445,7 @@
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="711" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A711" s="24">
         <v>44641</v>
       </c>
@@ -12350,7 +12457,7 @@
         <v>-3.2000000000000028</v>
       </c>
     </row>
-    <row r="712" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A712" s="24">
         <v>44638</v>
       </c>
@@ -12362,7 +12469,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="713" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A713" s="24">
         <v>44637</v>
       </c>
@@ -12374,7 +12481,7 @@
         <v>-0.79999999999999716</v>
       </c>
     </row>
-    <row r="714" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A714" s="24">
         <v>44636</v>
       </c>
@@ -12386,7 +12493,7 @@
         <v>3.1999999999999886</v>
       </c>
     </row>
-    <row r="715" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A715" s="24">
         <v>44635</v>
       </c>
@@ -12398,7 +12505,7 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="716" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A716" s="24">
         <v>44634</v>
       </c>
@@ -12410,7 +12517,7 @@
         <v>-8.7999999999999972</v>
       </c>
     </row>
-    <row r="717" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A717" s="24">
         <v>44631</v>
       </c>
@@ -12422,7 +12529,7 @@
         <v>-12.800000000000011</v>
       </c>
     </row>
-    <row r="718" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A718" s="24">
         <v>44630</v>
       </c>
@@ -12434,7 +12541,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="719" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A719" s="24">
         <v>44629</v>
       </c>
@@ -12446,7 +12553,7 @@
         <v>-0.39999999999997726</v>
       </c>
     </row>
-    <row r="720" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:3" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A720" s="24">
         <v>44628</v>
       </c>
@@ -12458,7 +12565,7 @@
         <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="721" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A721" s="24">
         <v>44627</v>
       </c>
@@ -12470,7 +12577,7 @@
         <v>0.80000000000001137</v>
       </c>
     </row>
-    <row r="722" spans="1:5" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:5" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A722" s="30">
         <v>44624</v>
       </c>
@@ -12486,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A723" s="24">
         <v>44623</v>
       </c>
@@ -12502,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A724" s="24">
         <v>44622</v>
       </c>
@@ -12518,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A725" s="24">
         <v>44621</v>
       </c>
@@ -12534,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A726" s="24">
         <v>44620</v>
       </c>
@@ -12554,7 +12661,7 @@
         <v>-2.386117136659438E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A727" s="24">
         <v>44617</v>
       </c>
@@ -12570,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A728" s="24">
         <v>44616</v>
       </c>
@@ -12590,7 +12697,7 @@
         <v>-0.1693693693693693</v>
       </c>
     </row>
-    <row r="729" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A729" s="24">
         <v>44615</v>
       </c>
@@ -12606,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A730" s="24">
         <v>44614</v>
       </c>
@@ -12622,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A731" s="24">
         <v>44610</v>
       </c>
@@ -12638,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A732" s="24">
         <v>44609</v>
       </c>
@@ -12654,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A733" s="24">
         <v>44608</v>
       </c>
@@ -12670,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A734" s="24">
         <v>44607</v>
       </c>
@@ -12690,7 +12797,7 @@
         <v>-5.7724957555178258E-2</v>
       </c>
     </row>
-    <row r="735" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A735" s="24">
         <v>44606</v>
       </c>
@@ -12706,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A736" s="24">
         <v>44603</v>
       </c>
@@ -12722,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A737" s="24">
         <v>44602</v>
       </c>
@@ -12738,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A738" s="24">
         <v>44601</v>
       </c>
@@ -12758,7 +12865,7 @@
         <v>-3.4426229508196737E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A739" s="24">
         <v>44600</v>
       </c>
@@ -12774,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A740" s="24">
         <v>44599</v>
       </c>
@@ -12794,7 +12901,7 @@
         <v>-1.9292604501607746E-2</v>
       </c>
     </row>
-    <row r="741" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A741" s="24">
         <v>44596</v>
       </c>
@@ -12810,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A742" s="24">
         <v>44595</v>
       </c>
@@ -12826,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A743" s="24">
         <v>44594</v>
       </c>
@@ -12842,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A744" s="24">
         <v>44593</v>
       </c>
@@ -12862,7 +12969,7 @@
         <v>0.17803030303030321</v>
       </c>
     </row>
-    <row r="745" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A745" s="24">
         <v>44592</v>
       </c>
@@ -12878,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A746" s="24">
         <v>44589</v>
       </c>
@@ -12894,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A747" s="24">
         <v>44588</v>
       </c>
@@ -12910,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A748" s="24">
         <v>44587</v>
       </c>
@@ -12926,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A749" s="24">
         <v>44586</v>
       </c>
@@ -12942,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A750" s="24">
         <v>44585</v>
       </c>
@@ -12958,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A751" s="24">
         <v>44582</v>
       </c>
@@ -12978,7 +13085,7 @@
         <v>-0.22693997071742311</v>
       </c>
     </row>
-    <row r="752" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A752" s="24">
         <v>44581</v>
       </c>
@@ -12994,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A753" s="24">
         <v>44580</v>
       </c>
@@ -13010,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A754" s="24">
         <v>44579</v>
       </c>
@@ -13026,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A755" s="24">
         <v>44575</v>
       </c>
@@ -13042,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A756" s="24">
         <v>44574</v>
       </c>
@@ -13058,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A757" s="24">
         <v>44573</v>
       </c>
@@ -13074,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A758" s="24">
         <v>44572</v>
       </c>
@@ -13094,7 +13201,7 @@
         <v>-2.2889842632332069E-2</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A759" s="24">
         <v>44571</v>
       </c>
@@ -13110,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A760" s="24">
         <v>44568</v>
       </c>
@@ -13126,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A761" s="24">
         <v>44567</v>
       </c>
@@ -13150,7 +13257,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:7" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A762" s="30">
         <v>44566</v>
       </c>
@@ -13174,7 +13281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A763" s="24">
         <v>44565</v>
       </c>
@@ -13190,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A764" s="24">
         <v>44564</v>
       </c>
@@ -13210,7 +13317,7 @@
         <v>-3.1215161649944201E-2</v>
       </c>
     </row>
-    <row r="765" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A765" s="24">
         <v>44561</v>
       </c>
@@ -13226,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A766" s="24">
         <v>44560</v>
       </c>
@@ -13246,7 +13353,7 @@
         <v>-0.2068965517241379</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A767" s="24">
         <v>44559</v>
       </c>
@@ -13262,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A768" s="24">
         <v>44558</v>
       </c>
@@ -13278,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A769" s="24">
         <v>44557</v>
       </c>
@@ -13294,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A770" s="24">
         <v>44553</v>
       </c>
@@ -13310,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A771" s="24">
         <v>44552</v>
       </c>
@@ -13318,7 +13425,7 @@
         <v>442.8</v>
       </c>
       <c r="C771" s="21">
-        <f t="shared" ref="C771:C834" si="14">B771-B772</f>
+        <f t="shared" ref="C771:C800" si="14">B771-B772</f>
         <v>-9.5999999999999659</v>
       </c>
       <c r="D771" s="22">
@@ -13326,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A772" s="24">
         <v>44551</v>
       </c>
@@ -13346,7 +13453,7 @@
         <v>1.2533572068039289E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A773" s="24">
         <v>44550</v>
       </c>
@@ -13362,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A774" s="24">
         <v>44547</v>
       </c>
@@ -13382,7 +13489,7 @@
         <v>2.9493087557603603E-2</v>
       </c>
     </row>
-    <row r="775" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A775" s="24">
         <v>44546</v>
       </c>
@@ -13398,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A776" s="30">
         <v>44545</v>
       </c>
@@ -13418,7 +13525,7 @@
         <v>7.3194856577645906E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A777" s="24">
         <v>44544</v>
       </c>
@@ -13434,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A778" s="24">
         <v>44543</v>
       </c>
@@ -13454,7 +13561,7 @@
         <v>-4.9212598425196763E-3</v>
       </c>
     </row>
-    <row r="779" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A779" s="24">
         <v>44540</v>
       </c>
@@ -13470,7 +13577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A780" s="24">
         <v>44539</v>
       </c>
@@ -13486,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A781" s="24">
         <v>44538</v>
       </c>
@@ -13506,7 +13613,7 @@
         <v>-0.1575456053067994</v>
       </c>
     </row>
-    <row r="782" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A782" s="24">
         <v>44537</v>
       </c>
@@ -13522,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A783" s="24">
         <v>44536</v>
       </c>
@@ -13539,7 +13646,7 @@
       </c>
       <c r="E783" s="25"/>
     </row>
-    <row r="784" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A784" s="24">
         <v>44533</v>
       </c>
@@ -13555,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A785" s="24">
         <v>44532</v>
       </c>
@@ -13571,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A786" s="24">
         <v>44531</v>
       </c>
@@ -13583,11 +13690,11 @@
         <v>-19.199999999999989</v>
       </c>
       <c r="D786" s="22">
-        <f t="shared" ref="D786:D817" si="15">IF(C786&gt;0,1,0)</f>
+        <f t="shared" ref="D786:D800" si="15">IF(C786&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A787" s="24">
         <v>44530</v>
       </c>
@@ -13603,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A788" s="24">
         <v>44529</v>
       </c>
@@ -13619,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A789" s="24">
         <v>44526</v>
       </c>
@@ -13639,7 +13746,7 @@
         <v>-0.10600444773906603</v>
       </c>
     </row>
-    <row r="790" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A790" s="24">
         <v>44524</v>
       </c>
@@ -13655,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A791" s="24">
         <v>44523</v>
       </c>
@@ -13671,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A792" s="24">
         <v>44522</v>
       </c>
@@ -13691,7 +13798,7 @@
         <v>-3.6428571428571366E-2</v>
       </c>
     </row>
-    <row r="793" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A793" s="24">
         <v>44519</v>
       </c>
@@ -13708,7 +13815,7 @@
       </c>
       <c r="E793" s="25"/>
     </row>
-    <row r="794" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A794" s="24">
         <v>44518</v>
       </c>
@@ -13724,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A795" s="24">
         <v>44517</v>
       </c>
@@ -13740,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A796" s="24">
         <v>44516</v>
       </c>
@@ -13760,7 +13867,7 @@
         <v>-6.1662198391420842E-2</v>
       </c>
     </row>
-    <row r="797" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A797" s="24">
         <v>44515</v>
       </c>
@@ -13777,7 +13884,7 @@
       </c>
       <c r="E797" s="21"/>
     </row>
-    <row r="798" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A798" s="24">
         <v>44512</v>
       </c>
@@ -13793,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A799" s="24">
         <v>44511</v>
       </c>
@@ -13809,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A800" s="24">
         <v>44510</v>
       </c>
@@ -13837,7 +13944,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="801" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A801" s="24">
         <v>44509</v>
       </c>
@@ -13850,7 +13957,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="802" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A802" s="24">
         <v>44508</v>
       </c>
@@ -13859,7 +13966,7 @@
       </c>
       <c r="C802" s="21"/>
     </row>
-    <row r="803" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A803" s="24">
         <v>44505</v>
       </c>
@@ -13867,7 +13974,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="804" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A804" s="24">
         <v>44504</v>
       </c>
@@ -13875,7 +13982,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="805" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A805" s="24">
         <v>44503</v>
       </c>
@@ -13883,7 +13990,7 @@
         <v>567.6</v>
       </c>
     </row>
-    <row r="806" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A806" s="24">
         <v>44502</v>
       </c>
@@ -13891,7 +13998,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="807" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A807" s="24">
         <v>44501</v>
       </c>
@@ -13899,7 +14006,7 @@
         <v>551.6</v>
       </c>
     </row>
-    <row r="808" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A808" s="24">
         <v>44498</v>
       </c>
@@ -13907,7 +14014,7 @@
         <v>552.79999999999995</v>
       </c>
     </row>
-    <row r="809" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A809" s="24">
         <v>44497</v>
       </c>
@@ -13915,7 +14022,7 @@
         <v>571.20000000000005</v>
       </c>
     </row>
-    <row r="810" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A810" s="24">
         <v>44496</v>
       </c>
@@ -13923,7 +14030,7 @@
         <v>573.20000000000005</v>
       </c>
     </row>
-    <row r="811" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A811" s="24">
         <v>44495</v>
       </c>
@@ -13931,7 +14038,7 @@
         <v>579.20000000000005</v>
       </c>
     </row>
-    <row r="812" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A812" s="24">
         <v>44494</v>
       </c>
@@ -13939,7 +14046,7 @@
         <v>571.20000000000005</v>
       </c>
     </row>
-    <row r="813" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A813" s="24">
         <v>44491</v>
       </c>
@@ -13947,7 +14054,7 @@
         <v>525.6</v>
       </c>
     </row>
-    <row r="814" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A814" s="24">
         <v>44490</v>
       </c>
@@ -13955,7 +14062,7 @@
         <v>528.4</v>
       </c>
     </row>
-    <row r="815" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A815" s="24">
         <v>44489</v>
       </c>
@@ -13963,7 +14070,7 @@
         <v>550.79999999999995</v>
       </c>
     </row>
-    <row r="816" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:5" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A816" s="24">
         <v>44488</v>
       </c>
@@ -13971,7 +14078,7 @@
         <v>592.4</v>
       </c>
     </row>
-    <row r="817" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A817" s="24">
         <v>44487</v>
       </c>
@@ -13979,7 +14086,7 @@
         <v>492.8</v>
       </c>
     </row>
-    <row r="818" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A818" s="24">
         <v>44484</v>
       </c>
@@ -13987,7 +14094,7 @@
         <v>476.4</v>
       </c>
     </row>
-    <row r="819" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A819" s="24">
         <v>44483</v>
       </c>
@@ -13995,7 +14102,7 @@
         <v>465.2</v>
       </c>
     </row>
-    <row r="820" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A820" s="24">
         <v>44482</v>
       </c>
@@ -14003,7 +14110,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="821" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A821" s="24">
         <v>44481</v>
       </c>
@@ -14011,7 +14118,7 @@
         <v>433.2</v>
       </c>
     </row>
-    <row r="822" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A822" s="24">
         <v>44480</v>
       </c>
@@ -14019,7 +14126,7 @@
         <v>378.8</v>
       </c>
     </row>
-    <row r="823" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A823" s="24">
         <v>44477</v>
       </c>
@@ -14027,7 +14134,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="824" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A824" s="24">
         <v>44476</v>
       </c>
@@ -14035,7 +14142,7 @@
         <v>448.8</v>
       </c>
     </row>
-    <row r="825" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A825" s="24">
         <v>44475</v>
       </c>
@@ -14043,7 +14150,7 @@
         <v>423.6</v>
       </c>
     </row>
-    <row r="826" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A826" s="24">
         <v>44474</v>
       </c>
@@ -14051,7 +14158,7 @@
         <v>479.2</v>
       </c>
     </row>
-    <row r="827" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A827" s="24">
         <v>44473</v>
       </c>
@@ -14059,7 +14166,7 @@
         <v>455.2</v>
       </c>
     </row>
-    <row r="828" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A828" s="24">
         <v>44470</v>
       </c>
@@ -14067,7 +14174,7 @@
         <v>460.4</v>
       </c>
     </row>
-    <row r="829" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A829" s="24">
         <v>44469</v>
       </c>
@@ -14075,7 +14182,7 @@
         <v>463.6</v>
       </c>
     </row>
-    <row r="830" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A830" s="24">
         <v>44468</v>
       </c>
@@ -14083,7 +14190,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="831" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A831" s="24">
         <v>44467</v>
       </c>
@@ -14091,7 +14198,7 @@
         <v>514.79999999999995</v>
       </c>
     </row>
-    <row r="832" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A832" s="24">
         <v>44466</v>
       </c>
@@ -14099,7 +14206,7 @@
         <v>531.20000000000005</v>
       </c>
     </row>
-    <row r="833" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A833" s="24">
         <v>44463</v>
       </c>
@@ -14107,7 +14214,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="834" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A834" s="24">
         <v>44462</v>
       </c>
@@ -14115,7 +14222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="835" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A835" s="24">
         <v>44461</v>
       </c>
@@ -14123,7 +14230,7 @@
         <v>474.8</v>
       </c>
     </row>
-    <row r="836" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A836" s="24">
         <v>44460</v>
       </c>
@@ -14131,7 +14238,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="837" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A837" s="24">
         <v>44459</v>
       </c>
@@ -14139,7 +14246,7 @@
         <v>444.4</v>
       </c>
     </row>
-    <row r="838" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A838" s="24">
         <v>44456</v>
       </c>
@@ -14147,7 +14254,7 @@
         <v>487.2</v>
       </c>
     </row>
-    <row r="839" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A839" s="24">
         <v>44455</v>
       </c>
@@ -14155,7 +14262,7 @@
         <v>456.8</v>
       </c>
     </row>
-    <row r="840" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A840" s="24">
         <v>44454</v>
       </c>
@@ -14163,7 +14270,7 @@
         <v>405.2</v>
       </c>
     </row>
-    <row r="841" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A841" s="24">
         <v>44453</v>
       </c>
@@ -14171,7 +14278,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="842" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A842" s="24">
         <v>44452</v>
       </c>
@@ -14179,7 +14286,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="843" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A843" s="24">
         <v>44449</v>
       </c>
@@ -14187,7 +14294,7 @@
         <v>392.4</v>
       </c>
     </row>
-    <row r="844" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A844" s="24">
         <v>44448</v>
       </c>
@@ -14195,7 +14302,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="845" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A845" s="24">
         <v>44447</v>
       </c>
@@ -14203,7 +14310,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="846" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A846" s="24">
         <v>44446</v>
       </c>
@@ -14211,7 +14318,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="847" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A847" s="24">
         <v>44442</v>
       </c>
@@ -14219,7 +14326,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="848" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A848" s="24">
         <v>44441</v>
       </c>
@@ -14227,7 +14334,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="849" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A849" s="24">
         <v>44440</v>
       </c>
@@ -14235,7 +14342,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="850" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A850" s="24">
         <v>44439</v>
       </c>
@@ -14243,7 +14350,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="851" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A851" s="24">
         <v>44438</v>
       </c>
@@ -14251,7 +14358,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="852" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A852" s="24">
         <v>44435</v>
       </c>
@@ -14259,7 +14366,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="853" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A853" s="24">
         <v>44434</v>
       </c>
@@ -14267,7 +14374,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="854" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A854" s="24">
         <v>44433</v>
       </c>
@@ -14275,7 +14382,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="855" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A855" s="24">
         <v>44432</v>
       </c>
@@ -14283,7 +14390,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="856" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A856" s="24">
         <v>44431</v>
       </c>
@@ -14291,7 +14398,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="857" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A857" s="24">
         <v>44428</v>
       </c>
@@ -14299,7 +14406,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="858" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A858" s="24">
         <v>44427</v>
       </c>
@@ -14307,7 +14414,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="859" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A859" s="24">
         <v>44426</v>
       </c>
@@ -14315,7 +14422,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="860" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A860" s="24">
         <v>44425</v>
       </c>
@@ -14323,7 +14430,7 @@
         <v>398.8</v>
       </c>
     </row>
-    <row r="861" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A861" s="24">
         <v>44424</v>
       </c>
@@ -14331,7 +14438,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="862" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A862" s="24">
         <v>44421</v>
       </c>
@@ -14339,7 +14446,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="863" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A863" s="24">
         <v>44420</v>
       </c>
@@ -14347,7 +14454,7 @@
         <v>401.2</v>
       </c>
     </row>
-    <row r="864" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A864" s="24">
         <v>44419</v>
       </c>
@@ -14355,7 +14462,7 @@
         <v>403.6</v>
       </c>
     </row>
-    <row r="865" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A865" s="24">
         <v>44418</v>
       </c>
@@ -14363,7 +14470,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="866" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A866" s="24">
         <v>44417</v>
       </c>
@@ -14371,7 +14478,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="867" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A867" s="24">
         <v>44414</v>
       </c>
@@ -14379,7 +14486,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="868" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A868" s="24">
         <v>44413</v>
       </c>
@@ -14387,7 +14494,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="869" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A869" s="24">
         <v>44412</v>
       </c>
@@ -14395,7 +14502,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="870" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A870" s="24">
         <v>44411</v>
       </c>
@@ -14403,7 +14510,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="871" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A871" s="24">
         <v>44410</v>
       </c>
@@ -14411,7 +14518,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="872" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A872" s="24">
         <v>44407</v>
       </c>
@@ -14419,7 +14526,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="873" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A873" s="24">
         <v>44406</v>
       </c>
@@ -14427,7 +14534,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="874" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A874" s="24">
         <v>44405</v>
       </c>
@@ -14435,7 +14542,7 @@
         <v>394.4</v>
       </c>
     </row>
-    <row r="875" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A875" s="24">
         <v>44404</v>
       </c>
@@ -14443,7 +14550,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="876" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A876" s="24">
         <v>44403</v>
       </c>
@@ -14451,7 +14558,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="877" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A877" s="24">
         <v>44400</v>
       </c>
@@ -14459,7 +14566,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="878" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A878" s="24">
         <v>44399</v>
       </c>
@@ -14467,7 +14574,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="879" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A879" s="24">
         <v>44398</v>
       </c>
@@ -14475,7 +14582,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="880" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A880" s="24">
         <v>44397</v>
       </c>
@@ -14483,7 +14590,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="881" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A881" s="24">
         <v>44396</v>
       </c>
@@ -14491,7 +14598,7 @@
         <v>396.8</v>
       </c>
     </row>
-    <row r="882" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A882" s="24">
         <v>44393</v>
       </c>
@@ -14499,7 +14606,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="883" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A883" s="24">
         <v>44392</v>
       </c>
@@ -14507,7 +14614,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="884" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A884" s="24">
         <v>44391</v>
       </c>
@@ -14515,7 +14622,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="885" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A885" s="24">
         <v>44390</v>
       </c>
@@ -14523,7 +14630,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="886" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A886" s="24">
         <v>44389</v>
       </c>
@@ -14531,7 +14638,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="887" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A887" s="24">
         <v>44386</v>
       </c>
@@ -14539,7 +14646,7 @@
         <v>399.6</v>
       </c>
     </row>
-    <row r="888" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A888" s="24">
         <v>44385</v>
       </c>
@@ -14547,7 +14654,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="889" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A889" s="24">
         <v>44384</v>
       </c>
@@ -14555,7 +14662,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="890" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A890" s="24">
         <v>44383</v>
       </c>
@@ -14563,7 +14670,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="891" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A891" s="24">
         <v>44379</v>
       </c>
@@ -14571,7 +14678,7 @@
         <v>401.2</v>
       </c>
     </row>
-    <row r="892" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A892" s="24">
         <v>44378</v>
       </c>
@@ -14579,7 +14686,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="893" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A893" s="24">
         <v>44377</v>
       </c>
@@ -14587,7 +14694,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="894" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A894" s="24">
         <v>44376</v>
       </c>
@@ -14595,7 +14702,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="895" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A895" s="24">
         <v>44375</v>
       </c>
@@ -14603,7 +14710,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="896" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A896" s="24">
         <v>44372</v>
       </c>
@@ -14611,7 +14718,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="897" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A897" s="24">
         <v>44371</v>
       </c>
@@ -14619,7 +14726,7 @@
         <v>399.6</v>
       </c>
     </row>
-    <row r="898" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A898" s="24">
         <v>44370</v>
       </c>
@@ -14627,7 +14734,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="899" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A899" s="24">
         <v>44369</v>
       </c>
@@ -14635,7 +14742,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="900" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A900" s="24">
         <v>44368</v>
       </c>
@@ -14643,7 +14750,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="901" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A901" s="24">
         <v>44365</v>
       </c>
@@ -14651,7 +14758,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="902" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A902" s="24">
         <v>44364</v>
       </c>
@@ -14659,7 +14766,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="903" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A903" s="24">
         <v>44363</v>
       </c>
@@ -14667,7 +14774,7 @@
         <v>396.8</v>
       </c>
     </row>
-    <row r="904" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A904" s="24">
         <v>44362</v>
       </c>
@@ -14675,7 +14782,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="905" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A905" s="24">
         <v>44361</v>
       </c>
@@ -14683,7 +14790,7 @@
         <v>397.2</v>
       </c>
     </row>
-    <row r="906" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A906" s="24">
         <v>44358</v>
       </c>
@@ -14691,7 +14798,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="907" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A907" s="24">
         <v>44357</v>
       </c>
@@ -14699,7 +14806,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="908" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A908" s="24">
         <v>44356</v>
       </c>
@@ -14707,7 +14814,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="909" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A909" s="24">
         <v>44355</v>
       </c>
@@ -14715,7 +14822,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="910" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A910" s="24">
         <v>44354</v>
       </c>
@@ -14723,7 +14830,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="911" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A911" s="24">
         <v>44351</v>
       </c>
@@ -14731,7 +14838,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="912" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A912" s="24">
         <v>44350</v>
       </c>
@@ -14739,7 +14846,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="913" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A913" s="24">
         <v>44349</v>
       </c>
@@ -14747,7 +14854,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="914" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A914" s="24">
         <v>44348</v>
       </c>
@@ -14755,7 +14862,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="915" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A915" s="24">
         <v>44344</v>
       </c>
@@ -14763,7 +14870,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="916" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A916" s="24">
         <v>44343</v>
       </c>
@@ -14771,7 +14878,7 @@
         <v>395.2</v>
       </c>
     </row>
-    <row r="917" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A917" s="24">
         <v>44342</v>
       </c>
@@ -14779,7 +14886,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="918" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A918" s="24">
         <v>44341</v>
       </c>
@@ -14787,7 +14894,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="919" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A919" s="24">
         <v>44340</v>
       </c>
@@ -14795,7 +14902,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="920" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A920" s="24">
         <v>44337</v>
       </c>
@@ -14803,7 +14910,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="921" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A921" s="24">
         <v>44336</v>
       </c>
@@ -14811,7 +14918,7 @@
         <v>395.2</v>
       </c>
     </row>
-    <row r="922" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A922" s="24">
         <v>44335</v>
       </c>
@@ -14819,7 +14926,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="923" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A923" s="24">
         <v>44334</v>
       </c>
@@ -14827,7 +14934,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="924" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A924" s="24">
         <v>44333</v>
       </c>
@@ -14835,7 +14942,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="925" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A925" s="24">
         <v>44330</v>
       </c>
@@ -14843,7 +14950,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="926" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A926" s="24">
         <v>44329</v>
       </c>
@@ -14851,7 +14958,7 @@
         <v>395.2</v>
       </c>
     </row>
-    <row r="927" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A927" s="24">
         <v>44328</v>
       </c>
@@ -14859,7 +14966,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="928" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A928" s="24">
         <v>44327</v>
       </c>
@@ -14867,7 +14974,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="929" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A929" s="24">
         <v>44326</v>
       </c>
@@ -14875,7 +14982,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="930" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A930" s="24">
         <v>44323</v>
       </c>
@@ -14883,7 +14990,7 @@
         <v>402.4</v>
       </c>
     </row>
-    <row r="931" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A931" s="24">
         <v>44322</v>
       </c>
@@ -14891,7 +14998,7 @@
         <v>401.2</v>
       </c>
     </row>
-    <row r="932" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A932" s="24">
         <v>44321</v>
       </c>
@@ -14899,7 +15006,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="933" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A933" s="24">
         <v>44320</v>
       </c>
@@ -14907,7 +15014,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="934" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A934" s="24">
         <v>44319</v>
       </c>
@@ -14915,7 +15022,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="935" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A935" s="24">
         <v>44316</v>
       </c>
@@ -14923,7 +15030,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="936" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A936" s="24">
         <v>44315</v>
       </c>
@@ -14931,7 +15038,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="937" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A937" s="24">
         <v>44314</v>
       </c>
@@ -14939,7 +15046,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="938" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A938" s="24">
         <v>44313</v>
       </c>
@@ -14947,7 +15054,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="939" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A939" s="24">
         <v>44312</v>
       </c>
@@ -14955,7 +15062,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="940" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A940" s="24">
         <v>44309</v>
       </c>
@@ -14963,7 +15070,7 @@
         <v>414.8</v>
       </c>
     </row>
-    <row r="941" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A941" s="24">
         <v>44308</v>
       </c>
@@ -14971,7 +15078,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="942" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:2" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A942" s="24">
         <v>44307</v>
       </c>
@@ -14979,7 +15086,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A943" s="24">
         <v>44306</v>
       </c>
@@ -14987,7 +15094,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A944" s="24">
         <v>44305</v>
       </c>
